--- a/data/Copy of Maika WorldCup.xlsx
+++ b/data/Copy of Maika WorldCup.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="724">
   <si>
     <t>ID</t>
   </si>
@@ -289,6 +289,9 @@
     <t xml:space="preserve">&lt;ask&gt; @spmatch (diễn ra|&lt;worldcup&gt;) (mấy giờ|khi nào|lúc nào) </t>
   </si>
   <si>
+    <t>&lt;ask&gt; @deltatime có (lịch &lt;worldcup&gt;|trận đấu) (&lt;question&gt;|nào (không|))</t>
+  </si>
+  <si>
     <t>schedule.nearest</t>
   </si>
   <si>
@@ -298,27 +301,24 @@
     <t xml:space="preserve">&lt;ask&gt; lịch &lt;worldcup&gt; @nearest (&lt;question&gt;|&lt;endofsent&gt;) </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;ask&gt; &lt;team&gt; @team ((và|&lt;against&gt; với) &lt;team&gt; @team|) (&lt;against&gt; với nhau|) (mấy giờ|khi nào|lúc nào|hôm nào|bữa nào|ngày nào) </t>
+  </si>
+  <si>
+    <t>schedule.first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ask&gt; lịch &lt;worldcup&gt; đầu tiên (của|) @group (&lt;question&gt;|&lt;endofsent&gt;) </t>
+  </si>
+  <si>
+    <t>infor.score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ask&gt; (&lt;predict&gt;|) (kết quả|&lt;result&gt;) &lt;worldcup&gt; &lt;matchof&gt; &lt;team&gt; @team ((&lt;on&gt; @day|@dayofweek)|) ((&lt;on&gt; @date|@date @month)|) (&lt;whowin&gt;|&lt;question&gt;|&lt;endofsent&gt;) </t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;ask&gt; (&lt;predict&gt;|) (kết quả|&lt;result&gt;) &lt;worldcup&gt; &lt;matchof&gt; &lt;team&gt; @team (và|&lt;against&gt; với) &lt;team&gt; @team (&lt;against&gt; với nhau|) ((&lt;on&gt; @day|@dayofweek)|) ((&lt;on&gt; @date|@date @month)|) (&lt;whowin&gt;|&lt;question&gt;|&lt;endofsent&gt;) </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ask&gt; &lt;team&gt; @team ((và|&lt;against&gt; với) &lt;team&gt; @team|) (&lt;against&gt; với nhau|) (mấy giờ|khi nào|lúc nào) </t>
-  </si>
-  <si>
-    <t>schedule.first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ask&gt; lịch &lt;worldcup&gt; đầu tiên (của|) @group (&lt;question&gt;|&lt;endofsent&gt;) </t>
-  </si>
-  <si>
-    <t>infor.score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ask&gt; (&lt;predict&gt;|) (kết quả|&lt;result&gt;) &lt;worldcup&gt; &lt;matchof&gt; &lt;team&gt; @team ((&lt;on&gt; @day|@dayofweek)|) ((&lt;on&gt; @date|@date @month)|) (&lt;whowin&gt;|&lt;question&gt;|&lt;endofsent&gt;) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ask&gt; (&lt;predict&gt;|) (kết quả|&lt;result&gt;) &lt;worldcup&gt; &lt;matchof&gt; &lt;team&gt; @team (và|với) &lt;team&gt; @team (&lt;against&gt; với nhau|) ((&lt;on&gt; @day|@dayofweek)|) ((&lt;on&gt; @date|@date @month)|) (&lt;whowin&gt;|&lt;question&gt;|&lt;endofsent&gt;) </t>
-  </si>
-  <si>
     <t>&lt;ask&gt; (&lt;predict&gt;|) (kết quả|&lt;result&gt;) (đội vào|&lt;matchof&gt;) @spmatch (&lt;endofsent&gt;|&lt;whowin&gt;)</t>
   </si>
   <si>
@@ -343,16 +343,16 @@
     <t>result.point</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng) &lt;worldcup&gt; @day (&lt;question&gt;|&lt;endofsent&gt;) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng)  &lt;worldcup&gt; (bảng|nhánh|nhóm|) @group (&lt;question&gt;|&lt;endofsent&gt;) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng)  &lt;team&gt; @team (@group|) (&lt;question&gt;|&lt;endofsent&gt;) </t>
-  </si>
-  <si>
-    <t>&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng|) &lt;team&gt; @rank @group ((là (đội (bóng|banh|)nào|ai))|&lt;endofsent&gt;)</t>
+    <t xml:space="preserve">&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng|hạng) &lt;worldcup&gt; @day (&lt;question&gt;|&lt;endofsent&gt;) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng|hạng)  &lt;worldcup&gt; (bảng|nhánh|nhóm|) @group (&lt;question&gt;|&lt;endofsent&gt;) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng|hạng)  &lt;team&gt; @team (@group|) ((hiện (đang|tại|))|) (đứng thứ mấy|&lt;question&gt;|&lt;endofsent&gt;) </t>
+  </si>
+  <si>
+    <t>&lt;ask&gt; (kết quả|thông tin|tin tức|) (điểm|xếp hạng|hạng) &lt;team&gt; @rank @group ((là (đội (bóng|banh|)nào|ai))|&lt;endofsent&gt;)</t>
   </si>
   <si>
     <t>Text</t>
@@ -424,6 +424,15 @@
     <t>thứ hai có trận nào không bé</t>
   </si>
   <si>
+    <t>tối mai mấy giờ có đá banh</t>
+  </si>
+  <si>
+    <t>hai ngày nữa có đá banh không maika</t>
+  </si>
+  <si>
+    <t>bảng h đá hôm nào thế maika</t>
+  </si>
+  <si>
     <t>maika cho mình hỏi pháp và bồ đào nha khi nào đá với nhau vậy</t>
   </si>
   <si>
@@ -433,30 +442,39 @@
     <t>hàn và nhật sẽ đá vào lúc mấy giờ</t>
   </si>
   <si>
+    <t>cho tôi biết lịch thi đấu sắp tới của nga đi</t>
+  </si>
+  <si>
+    <t>tuần sau anh có đá không em</t>
+  </si>
+  <si>
+    <t>hai ba ngày nữa anh gặp ai vậy</t>
+  </si>
+  <si>
+    <t>đức anh đá hôm nào</t>
+  </si>
+  <si>
+    <t>hôm qua anh với bỉ ai thắng thế</t>
+  </si>
+  <si>
+    <t>anh,bỉ</t>
+  </si>
+  <si>
+    <t>hôm qua</t>
+  </si>
+  <si>
+    <t>tỉ số trận brazil và argentina là bao nhiêu</t>
+  </si>
+  <si>
+    <t>dự đoán tỉ số giữa nhật bản và hà lan đi maika</t>
+  </si>
+  <si>
+    <t>croatia và hàn ai sẽ đi tiếp</t>
+  </si>
+  <si>
     <t>trận tứ kết sắp tới ai thắng</t>
   </si>
   <si>
-    <t>cho tôi biết lịch thi đấu sắp tới của nga đi</t>
-  </si>
-  <si>
-    <t>hôm qua anh với bỉ ai thắng thế</t>
-  </si>
-  <si>
-    <t>anh,bỉ</t>
-  </si>
-  <si>
-    <t>hôm qua</t>
-  </si>
-  <si>
-    <t>tỉ số trận brazil và argentina là bao nhiêu</t>
-  </si>
-  <si>
-    <t>dự đoán tỉ số giữa nhật bản và hà lan đi maika</t>
-  </si>
-  <si>
-    <t>croatia và hàn ai sẽ đi tiếp</t>
-  </si>
-  <si>
     <t>xếp hạng của bồ hiện đang như thế nào vậy maika</t>
   </si>
   <si>
@@ -475,6 +493,9 @@
     <t>ai đang đứng bét bảng c vậy</t>
   </si>
   <si>
+    <t>@deltatime</t>
+  </si>
+  <si>
     <t>Đức</t>
   </si>
   <si>
@@ -508,7 +529,7 @@
     <t>bảng a</t>
   </si>
   <si>
-    <t>tứ kết</t>
+    <t>tứ kết (1|2|3|4|)</t>
   </si>
   <si>
     <t>nhất</t>
@@ -517,6 +538,9 @@
     <t>vừa rồi</t>
   </si>
   <si>
+    <t>(sau|trước) @hour (giờ|tiếng|ngày|phút|tuần|tháng|năm)</t>
+  </si>
+  <si>
     <t>Đan Mạch</t>
   </si>
   <si>
@@ -541,7 +565,7 @@
     <t>bảng b</t>
   </si>
   <si>
-    <t>bán kết</t>
+    <t>bán kết (1|2|)</t>
   </si>
   <si>
     <t>nhì</t>
@@ -550,6 +574,9 @@
     <t>gần nhất</t>
   </si>
   <si>
+    <t>@hour (giờ|tiếng|ngày|phút|tuần|tháng|năm) (sau|trước|nữa|tới)</t>
+  </si>
+  <si>
     <t>Pháp</t>
   </si>
   <si>
@@ -664,7 +691,7 @@
     <t>bảng g</t>
   </si>
   <si>
-    <t>(ba tư|3 4)</t>
+    <t>(tranh|) (ba tư|3 4|34)</t>
   </si>
   <si>
     <t>Serbia</t>
@@ -2240,7 +2267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2261,8 +2288,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2275,24 +2338,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9900FF"/>
         <bgColor rgb="FF9900FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -2541,7 +2586,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2703,6 +2748,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -2725,10 +2773,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -14705,7 +14759,7 @@
       <c r="Z1" s="54"/>
     </row>
     <row r="2">
-      <c r="A2" s="55">
+      <c r="A2" s="58">
         <v>1.0</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -14719,21 +14773,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="55">
+      <c r="A3" s="58">
         <v>2.0</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D3" s="28">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="55">
+      <c r="A4" s="58">
         <v>3.0</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -14747,7 +14801,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55">
+      <c r="A5" s="58">
         <v>4.0</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -14761,7 +14815,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="55">
+      <c r="A6" s="58">
         <v>5.0</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -14775,133 +14829,133 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55">
+      <c r="A7" s="58">
         <v>6.0</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D7" s="28">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55">
+      <c r="A8" s="58">
         <v>7.0</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D8" s="28">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="55">
+      <c r="A9" s="58">
         <v>8.0</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D9" s="28">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="55">
+      <c r="A10" s="58">
         <v>9.0</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D10" s="28">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="55">
+      <c r="A11" s="58">
         <v>10.0</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="D11" s="28">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56">
+      <c r="A12" s="72">
         <v>11.0</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D12" s="28">
         <v>10.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56">
+      <c r="A13" s="72">
         <v>12.0</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="D13" s="28">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="56">
+      <c r="A14" s="72">
         <v>13.0</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D14" s="28">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56">
+      <c r="A15" s="72">
         <v>14.0</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D15" s="28">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="58">
+      <c r="A16" s="73">
         <v>15.0</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -14915,63 +14969,63 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59">
+      <c r="A17" s="56">
         <v>16.0</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="D17" s="28">
         <v>8.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59">
+      <c r="A18" s="56">
         <v>17.0</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D18" s="28">
         <v>8.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="59">
+      <c r="A19" s="56">
         <v>18.0</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D19" s="28">
         <v>2.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>19.0</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D20" s="28">
         <v>3.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="60">
+      <c r="A21" s="59">
         <v>20.0</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -14985,126 +15039,126 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="61">
+      <c r="A22" s="55">
         <v>21.0</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D22" s="28">
         <v>3.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="61">
+      <c r="A23" s="55">
         <v>22.0</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D23" s="28">
         <v>4.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="61">
+      <c r="A24" s="55">
         <v>23.0</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D24" s="28">
         <v>5.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="61">
+      <c r="A25" s="55">
         <v>24.0</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="D25" s="28">
         <v>8.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="71">
+      <c r="A26" s="74">
         <v>25.0</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D26" s="28">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="72">
+      <c r="A27" s="75">
         <v>26.0</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D27" s="28">
         <v>4.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="72">
+      <c r="A28" s="75">
         <v>27.0</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D28" s="28">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="72">
+      <c r="A29" s="75">
         <v>28.0</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="D29" s="28">
         <v>7.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="72">
+      <c r="A30" s="75">
         <v>29.0</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D30" s="28">
         <v>7.0</v>
@@ -19438,10 +19492,10 @@
       <c r="Z1" s="54"/>
     </row>
     <row r="2">
-      <c r="A2" s="55">
+      <c r="A2" s="28">
         <v>1.0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -19452,10 +19506,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="55">
+      <c r="A3" s="28">
         <v>2.0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="28" t="s">
@@ -19466,10 +19520,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="55">
+      <c r="A4" s="28">
         <v>3.0</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -19480,10 +19534,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55">
+      <c r="A5" s="28">
         <v>4.0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -19494,10 +19548,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="55">
+      <c r="A6" s="28">
         <v>5.0</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -19508,10 +19562,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55">
+      <c r="A7" s="28">
         <v>6.0</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -19522,10 +19576,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55">
+      <c r="A8" s="28">
         <v>7.0</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -19536,10 +19590,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="55">
+      <c r="A9" s="28">
         <v>8.0</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -19550,10 +19604,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="55">
+      <c r="A10" s="28">
         <v>9.0</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -19564,10 +19618,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="55">
+      <c r="A11" s="28">
         <v>10.0</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -19578,53 +19632,53 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56">
+      <c r="A12" s="28">
         <v>11.0</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="28">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="28">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="28">
+      <c r="C13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="28">
         <v>10.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="56">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="28">
+    <row r="14">
+      <c r="A14" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="28">
         <v>1.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="56">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="28">
-        <v>10.0</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="56">
+      <c r="A15" s="28">
         <v>14.0</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>84</v>
+      <c r="B15" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>88</v>
@@ -19634,10 +19688,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="58">
+      <c r="A16" s="28">
         <v>15.0</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="58" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -19648,10 +19702,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59">
+      <c r="A17" s="28">
         <v>16.0</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="28" t="s">
@@ -19662,10 +19716,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59">
+      <c r="A18" s="28">
         <v>17.0</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -19676,10 +19730,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="59">
+      <c r="A19" s="28">
         <v>18.0</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -19690,10 +19744,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="59">
+      <c r="A20" s="28">
         <v>19.0</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -19704,10 +19758,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="59">
+      <c r="A21" s="28">
         <v>20.0</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -19718,10 +19772,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="59">
+      <c r="A22" s="28">
         <v>21.0</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -19732,10 +19786,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="60">
+      <c r="A23" s="28">
         <v>22.0</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="60" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -19746,10 +19800,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="60">
+      <c r="A24" s="28">
         <v>23.0</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="60" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -19760,10 +19814,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="61">
+      <c r="A25" s="28">
         <v>24.0</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -19774,10 +19828,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="61">
+      <c r="A26" s="28">
         <v>25.0</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>101</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -19788,24 +19842,24 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="61">
+      <c r="A27" s="28">
         <v>26.0</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="28">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="61">
+      <c r="A28" s="28">
         <v>27.0</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -19816,7 +19870,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="61">
+      <c r="A29" s="28">
         <v>29.0</v>
       </c>
       <c r="B29" s="62"/>
@@ -20054,6 +20108,9 @@
       <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
+      <c r="C10" s="28" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="28">
@@ -20062,6 +20119,9 @@
       <c r="B11" s="28" t="s">
         <v>74</v>
       </c>
+      <c r="C11" s="28" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28">
@@ -20070,19 +20130,22 @@
       <c r="B12" s="28" t="s">
         <v>74</v>
       </c>
+      <c r="C12" s="28" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="28">
         <v>12.0</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -20090,10 +20153,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -20101,10 +20164,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -20112,10 +20172,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -20123,7 +20183,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18">
@@ -20131,7 +20194,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -20139,7 +20205,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20">
@@ -20182,13 +20251,13 @@
         <v>91</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25">
@@ -20199,7 +20268,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
@@ -20210,7 +20279,7 @@
         <v>91</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
@@ -20221,7 +20290,7 @@
         <v>91</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
@@ -20231,6 +20300,9 @@
       <c r="B28" s="28" t="s">
         <v>91</v>
       </c>
+      <c r="C28" s="28" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28">
@@ -20440,7 +20512,7 @@
         <v>101</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
@@ -20451,7 +20523,7 @@
         <v>101</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56">
@@ -20462,7 +20534,7 @@
         <v>101</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57">
@@ -20473,7 +20545,7 @@
         <v>101</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58">
@@ -20484,7 +20556,7 @@
         <v>101</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -20495,7 +20567,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60">
@@ -20714,6 +20786,7 @@
     <col customWidth="1" min="7" max="7" width="36.38"/>
     <col customWidth="1" min="8" max="8" width="11.13"/>
     <col customWidth="1" min="10" max="10" width="13.25"/>
+    <col customWidth="1" min="15" max="15" width="45.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20759,7 +20832,9 @@
       <c r="N1" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="54"/>
+      <c r="O1" s="53" t="s">
+        <v>152</v>
+      </c>
       <c r="P1" s="54"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="54"/>
@@ -20774,1729 +20849,1735 @@
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>152</v>
+        <v>158</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>159</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="64" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>181</v>
+        <v>189</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
-        <v>182</v>
+      <c r="A5" s="66" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="64" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
-        <v>193</v>
+      <c r="A6" s="66" t="s">
+        <v>202</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="s">
-        <v>202</v>
+      <c r="A7" s="66" t="s">
+        <v>211</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="s">
-        <v>210</v>
+      <c r="A8" s="66" t="s">
+        <v>219</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="65" t="s">
-        <v>215</v>
+      <c r="A9" s="66" t="s">
+        <v>224</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="s">
-        <v>220</v>
+      <c r="A10" s="66" t="s">
+        <v>229</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="s">
-        <v>223</v>
+      <c r="A11" s="66" t="s">
+        <v>232</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="s">
-        <v>225</v>
+      <c r="A12" s="66" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65" t="s">
-        <v>226</v>
+      <c r="A13" s="66" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="28" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="65" t="s">
-        <v>229</v>
+      <c r="A16" s="66" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="65" t="s">
-        <v>230</v>
+      <c r="A17" s="66" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="s">
-        <v>231</v>
+      <c r="A18" s="66" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="65" t="s">
-        <v>232</v>
+      <c r="A19" s="66" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65" t="s">
-        <v>233</v>
+      <c r="A20" s="66" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="65" t="s">
-        <v>234</v>
+      <c r="A21" s="66" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="65" t="s">
-        <v>235</v>
+      <c r="A22" s="66" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="65" t="s">
-        <v>236</v>
+      <c r="A23" s="66" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="65" t="s">
-        <v>237</v>
+      <c r="A24" s="66" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="65" t="s">
-        <v>238</v>
+      <c r="A25" s="66" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="65" t="s">
-        <v>239</v>
+      <c r="A26" s="66" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="65" t="s">
-        <v>240</v>
+      <c r="A27" s="66" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="s">
-        <v>241</v>
+      <c r="A28" s="66" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="65" t="s">
-        <v>242</v>
+      <c r="A29" s="66" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="66" t="s">
-        <v>243</v>
+      <c r="A30" s="67" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="65" t="s">
-        <v>244</v>
+      <c r="A31" s="66" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="s">
-        <v>245</v>
+      <c r="A32" s="66" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="65" t="s">
-        <v>246</v>
+      <c r="A33" s="66" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="28" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="28" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="28" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="28" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="28" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="28" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="28" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="28" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="28" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="28" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="28" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="28" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="28" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="28" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="28" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="28" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="28" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="28" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="28" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="28" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="28" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="28" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="28" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="28" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="28" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="28" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="28" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="28" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="28" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="28" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="28" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="28" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="28" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="28" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="28" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="28" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="28" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="28" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="28" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="28" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="28" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="28" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="28" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="28" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="28" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="28" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="28" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="28" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="28" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="28" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="28" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="28" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="28" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="28" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="28" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="28" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="28" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="28" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="28" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="28" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="28" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="28" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="28" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="28" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="28" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="28" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="28" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="28" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="28" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="28" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="28" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="28" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="28" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="28" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="28" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="28" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="28" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="28" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="28" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="28" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="28" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="28" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="28" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="28" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="28" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="28" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="28" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="28" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="28" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="28" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="28" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="28" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="28" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="28" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="28" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="28" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="28" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="28" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="28" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="28" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="28" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="28" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="28" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="28" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="28" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="28" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="28" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="28" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="28" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="28" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="28" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="28" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="28" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="28" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="28" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="28" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="28" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="28" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="28" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="28" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="28" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="28" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="28" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="28" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="28" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="28" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="28" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="28" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="28" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="28" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="28" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="28" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="28" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="28" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="28" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="28" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="28" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="28" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="28" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="28" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="28" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="28" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="28" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="28" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="28" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="28" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="28" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="28" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="28" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="28" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="28" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="28" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="28" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="28" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="28" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="28" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="28" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="28" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="28" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="28" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="28" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="28" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="28" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="28" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="28" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="28" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="28" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="28" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="28" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="28" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="28" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="28" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="28" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="28" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="28" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="28" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="28" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="28" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="28" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="28" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="28" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="28" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="28" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="28" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="28" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="28" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="28" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="28" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="28" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="28" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="28" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="28" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="28" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="28" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="28" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="28" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="28" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="28" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="28" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="28" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="28" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="28" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="28" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="28" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="28" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="28" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="28" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="28" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="28" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="28" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="28" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="28" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="28" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="28" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="28" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="28" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="28" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="28" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="28" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="28" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="28" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="28" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="28" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="28" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="28" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="28" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="28" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="28" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="28" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="28" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="28" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="28" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="28" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="28" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="28" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="28" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="28" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="28" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="28" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="28" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="28" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="28" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="28" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="28" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="28" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="28" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="28" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -22519,49 +22600,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="P1" s="54"/>
       <c r="Q1" s="54"/>
@@ -22577,645 +22658,645 @@
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>500</v>
-      </c>
       <c r="H3" s="28" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="O7" s="28" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="28" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D13" s="28"/>
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="28" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="28" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="28" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="28" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="28" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="28" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="28" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="28" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="28" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="28" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="28" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="28" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="28" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="28" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="28" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="28" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="28" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="28" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="28" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="28" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="28" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="28" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="28" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="28" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="28" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="28" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="28" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="28" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="28" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="28" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="28" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="28" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="28" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="28" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="28" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="28" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="28" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="28" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="28" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="28" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="28" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="28" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="28" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="28" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="28" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="28" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="28" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="28" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="28" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="28" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="28" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="28" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -23234,150 +23315,150 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
-        <v>647</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>648</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>649</v>
+      <c r="A1" s="68" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="69">
         <v>0.0</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>650</v>
-      </c>
-      <c r="C2" s="67"/>
+      <c r="B2" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" s="68"/>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="69">
         <v>1.0</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>651</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>652</v>
+      <c r="B3" s="68" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="69">
         <v>2.0</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>653</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>653</v>
+      <c r="B4" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68">
+      <c r="A5" s="69">
         <v>3.0</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>180</v>
+      <c r="B5" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68">
+      <c r="A6" s="69">
         <v>4.0</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>654</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>655</v>
+      <c r="B6" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68">
+      <c r="A7" s="69">
         <v>5.0</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>656</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>656</v>
+      <c r="B7" s="68" t="s">
+        <v>665</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68">
+      <c r="A8" s="69">
         <v>6.0</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>657</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>657</v>
+      <c r="B8" s="68" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68">
+      <c r="A9" s="69">
         <v>7.0</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>658</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>658</v>
+      <c r="B9" s="68" t="s">
+        <v>667</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="68">
+      <c r="A10" s="69">
         <v>8.0</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>659</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>659</v>
+      <c r="B10" s="68" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="68">
+      <c r="A11" s="69">
         <v>9.0</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>660</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>660</v>
+      <c r="B11" s="68" t="s">
+        <v>669</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="68">
+      <c r="A12" s="69">
         <v>10.0</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>661</v>
-      </c>
-      <c r="C12" s="67"/>
+      <c r="B12" s="68" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13">
-      <c r="A13" s="67" t="s">
-        <v>662</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>663</v>
-      </c>
-      <c r="C13" s="67"/>
+      <c r="A13" s="68" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" s="68"/>
     </row>
     <row r="14">
-      <c r="A14" s="67" t="s">
-        <v>664</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>665</v>
-      </c>
-      <c r="C14" s="67"/>
+      <c r="A14" s="68" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>674</v>
+      </c>
+      <c r="C14" s="68"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23398,3095 +23479,3095 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="69" t="s">
-        <v>666</v>
+      <c r="A1" s="70" t="s">
+        <v>675</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="s">
-        <v>667</v>
+      <c r="A2" s="70" t="s">
+        <v>676</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
-        <v>671</v>
+      <c r="A3" s="70" t="s">
+        <v>680</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69" t="s">
-        <v>676</v>
+      <c r="A4" s="70" t="s">
+        <v>685</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="69" t="s">
-        <v>684</v>
+      <c r="A5" s="70" t="s">
+        <v>693</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
     </row>
     <row r="7">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
     </row>
     <row r="8">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
     </row>
     <row r="9">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
     </row>
     <row r="12">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
     </row>
     <row r="14">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
     </row>
     <row r="15">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
     </row>
     <row r="16">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18">
-      <c r="A18" s="70"/>
+      <c r="A18" s="71"/>
     </row>
     <row r="19">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22">
-      <c r="A22" s="70"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23">
-      <c r="A23" s="70"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24">
-      <c r="A24" s="70"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="71"/>
       <c r="C25" s="28" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="70"/>
+      <c r="A26" s="71"/>
       <c r="C26" s="28" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="70"/>
+      <c r="A27" s="71"/>
       <c r="C27" s="28" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29">
-      <c r="A29" s="70"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30">
-      <c r="A30" s="70"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31">
-      <c r="A31" s="70"/>
+      <c r="A31" s="71"/>
     </row>
     <row r="32">
-      <c r="A32" s="70"/>
+      <c r="A32" s="71"/>
     </row>
     <row r="33">
-      <c r="A33" s="70"/>
+      <c r="A33" s="71"/>
     </row>
     <row r="34">
-      <c r="A34" s="70"/>
+      <c r="A34" s="71"/>
     </row>
     <row r="35">
-      <c r="A35" s="70"/>
+      <c r="A35" s="71"/>
     </row>
     <row r="36">
-      <c r="A36" s="70"/>
+      <c r="A36" s="71"/>
     </row>
     <row r="37">
-      <c r="A37" s="70"/>
+      <c r="A37" s="71"/>
     </row>
     <row r="38">
-      <c r="A38" s="70"/>
+      <c r="A38" s="71"/>
     </row>
     <row r="39">
-      <c r="A39" s="70"/>
+      <c r="A39" s="71"/>
     </row>
     <row r="40">
-      <c r="A40" s="70"/>
+      <c r="A40" s="71"/>
     </row>
     <row r="41">
-      <c r="A41" s="70"/>
+      <c r="A41" s="71"/>
     </row>
     <row r="42">
-      <c r="A42" s="70"/>
+      <c r="A42" s="71"/>
     </row>
     <row r="43">
-      <c r="A43" s="70"/>
+      <c r="A43" s="71"/>
     </row>
     <row r="44">
-      <c r="A44" s="70"/>
+      <c r="A44" s="71"/>
     </row>
     <row r="45">
-      <c r="A45" s="70"/>
+      <c r="A45" s="71"/>
     </row>
     <row r="46">
-      <c r="A46" s="70"/>
+      <c r="A46" s="71"/>
     </row>
     <row r="47">
-      <c r="A47" s="70"/>
+      <c r="A47" s="71"/>
     </row>
     <row r="48">
-      <c r="A48" s="70"/>
+      <c r="A48" s="71"/>
     </row>
     <row r="49">
-      <c r="A49" s="70"/>
+      <c r="A49" s="71"/>
     </row>
     <row r="50">
-      <c r="A50" s="70"/>
+      <c r="A50" s="71"/>
     </row>
     <row r="51">
-      <c r="A51" s="70"/>
+      <c r="A51" s="71"/>
     </row>
     <row r="52">
-      <c r="A52" s="70"/>
+      <c r="A52" s="71"/>
     </row>
     <row r="53">
-      <c r="A53" s="70"/>
+      <c r="A53" s="71"/>
     </row>
     <row r="54">
-      <c r="A54" s="70"/>
+      <c r="A54" s="71"/>
     </row>
     <row r="55">
-      <c r="A55" s="70"/>
+      <c r="A55" s="71"/>
     </row>
     <row r="56">
-      <c r="A56" s="70"/>
+      <c r="A56" s="71"/>
     </row>
     <row r="57">
-      <c r="A57" s="70"/>
+      <c r="A57" s="71"/>
     </row>
     <row r="58">
-      <c r="A58" s="70"/>
+      <c r="A58" s="71"/>
     </row>
     <row r="59">
-      <c r="A59" s="70"/>
+      <c r="A59" s="71"/>
     </row>
     <row r="60">
-      <c r="A60" s="70"/>
+      <c r="A60" s="71"/>
     </row>
     <row r="61">
-      <c r="A61" s="70"/>
+      <c r="A61" s="71"/>
     </row>
     <row r="62">
-      <c r="A62" s="70"/>
+      <c r="A62" s="71"/>
     </row>
     <row r="63">
-      <c r="A63" s="70"/>
+      <c r="A63" s="71"/>
     </row>
     <row r="64">
-      <c r="A64" s="70"/>
+      <c r="A64" s="71"/>
     </row>
     <row r="65">
-      <c r="A65" s="70"/>
+      <c r="A65" s="71"/>
     </row>
     <row r="66">
-      <c r="A66" s="70"/>
+      <c r="A66" s="71"/>
     </row>
     <row r="67">
-      <c r="A67" s="70"/>
+      <c r="A67" s="71"/>
     </row>
     <row r="68">
-      <c r="A68" s="70"/>
+      <c r="A68" s="71"/>
     </row>
     <row r="69">
-      <c r="A69" s="70"/>
+      <c r="A69" s="71"/>
     </row>
     <row r="70">
-      <c r="A70" s="70"/>
+      <c r="A70" s="71"/>
     </row>
     <row r="71">
-      <c r="A71" s="70"/>
+      <c r="A71" s="71"/>
     </row>
     <row r="72">
-      <c r="A72" s="70"/>
+      <c r="A72" s="71"/>
     </row>
     <row r="73">
-      <c r="A73" s="70"/>
+      <c r="A73" s="71"/>
     </row>
     <row r="74">
-      <c r="A74" s="70"/>
+      <c r="A74" s="71"/>
     </row>
     <row r="75">
-      <c r="A75" s="70"/>
+      <c r="A75" s="71"/>
     </row>
     <row r="76">
-      <c r="A76" s="70"/>
+      <c r="A76" s="71"/>
     </row>
     <row r="77">
-      <c r="A77" s="70"/>
+      <c r="A77" s="71"/>
     </row>
     <row r="78">
-      <c r="A78" s="70"/>
+      <c r="A78" s="71"/>
     </row>
     <row r="79">
-      <c r="A79" s="70"/>
+      <c r="A79" s="71"/>
     </row>
     <row r="80">
-      <c r="A80" s="70"/>
+      <c r="A80" s="71"/>
     </row>
     <row r="81">
-      <c r="A81" s="70"/>
+      <c r="A81" s="71"/>
     </row>
     <row r="82">
-      <c r="A82" s="70"/>
+      <c r="A82" s="71"/>
     </row>
     <row r="83">
-      <c r="A83" s="70"/>
+      <c r="A83" s="71"/>
     </row>
     <row r="84">
-      <c r="A84" s="70"/>
+      <c r="A84" s="71"/>
     </row>
     <row r="85">
-      <c r="A85" s="70"/>
+      <c r="A85" s="71"/>
     </row>
     <row r="86">
-      <c r="A86" s="70"/>
+      <c r="A86" s="71"/>
     </row>
     <row r="87">
-      <c r="A87" s="70"/>
+      <c r="A87" s="71"/>
     </row>
     <row r="88">
-      <c r="A88" s="70"/>
+      <c r="A88" s="71"/>
     </row>
     <row r="89">
-      <c r="A89" s="70"/>
+      <c r="A89" s="71"/>
     </row>
     <row r="90">
-      <c r="A90" s="70"/>
+      <c r="A90" s="71"/>
     </row>
     <row r="91">
-      <c r="A91" s="70"/>
+      <c r="A91" s="71"/>
     </row>
     <row r="92">
-      <c r="A92" s="70"/>
+      <c r="A92" s="71"/>
     </row>
     <row r="93">
-      <c r="A93" s="70"/>
+      <c r="A93" s="71"/>
     </row>
     <row r="94">
-      <c r="A94" s="70"/>
+      <c r="A94" s="71"/>
     </row>
     <row r="95">
-      <c r="A95" s="70"/>
+      <c r="A95" s="71"/>
     </row>
     <row r="96">
-      <c r="A96" s="70"/>
+      <c r="A96" s="71"/>
     </row>
     <row r="97">
-      <c r="A97" s="70"/>
+      <c r="A97" s="71"/>
     </row>
     <row r="98">
-      <c r="A98" s="70"/>
+      <c r="A98" s="71"/>
     </row>
     <row r="99">
-      <c r="A99" s="70"/>
+      <c r="A99" s="71"/>
     </row>
     <row r="100">
-      <c r="A100" s="70"/>
+      <c r="A100" s="71"/>
     </row>
     <row r="101">
-      <c r="A101" s="70"/>
+      <c r="A101" s="71"/>
     </row>
     <row r="102">
-      <c r="A102" s="70"/>
+      <c r="A102" s="71"/>
     </row>
     <row r="103">
-      <c r="A103" s="70"/>
+      <c r="A103" s="71"/>
     </row>
     <row r="104">
-      <c r="A104" s="70"/>
+      <c r="A104" s="71"/>
     </row>
     <row r="105">
-      <c r="A105" s="70"/>
+      <c r="A105" s="71"/>
     </row>
     <row r="106">
-      <c r="A106" s="70"/>
+      <c r="A106" s="71"/>
     </row>
     <row r="107">
-      <c r="A107" s="70"/>
+      <c r="A107" s="71"/>
     </row>
     <row r="108">
-      <c r="A108" s="70"/>
+      <c r="A108" s="71"/>
     </row>
     <row r="109">
-      <c r="A109" s="70"/>
+      <c r="A109" s="71"/>
     </row>
     <row r="110">
-      <c r="A110" s="70"/>
+      <c r="A110" s="71"/>
     </row>
     <row r="111">
-      <c r="A111" s="70"/>
+      <c r="A111" s="71"/>
     </row>
     <row r="112">
-      <c r="A112" s="70"/>
+      <c r="A112" s="71"/>
     </row>
     <row r="113">
-      <c r="A113" s="70"/>
+      <c r="A113" s="71"/>
     </row>
     <row r="114">
-      <c r="A114" s="70"/>
+      <c r="A114" s="71"/>
     </row>
     <row r="115">
-      <c r="A115" s="70"/>
+      <c r="A115" s="71"/>
     </row>
     <row r="116">
-      <c r="A116" s="70"/>
+      <c r="A116" s="71"/>
     </row>
     <row r="117">
-      <c r="A117" s="70"/>
+      <c r="A117" s="71"/>
     </row>
     <row r="118">
-      <c r="A118" s="70"/>
+      <c r="A118" s="71"/>
     </row>
     <row r="119">
-      <c r="A119" s="70"/>
+      <c r="A119" s="71"/>
     </row>
     <row r="120">
-      <c r="A120" s="70"/>
+      <c r="A120" s="71"/>
     </row>
     <row r="121">
-      <c r="A121" s="70"/>
+      <c r="A121" s="71"/>
     </row>
     <row r="122">
-      <c r="A122" s="70"/>
+      <c r="A122" s="71"/>
     </row>
     <row r="123">
-      <c r="A123" s="70"/>
+      <c r="A123" s="71"/>
     </row>
     <row r="124">
-      <c r="A124" s="70"/>
+      <c r="A124" s="71"/>
     </row>
     <row r="125">
-      <c r="A125" s="70"/>
+      <c r="A125" s="71"/>
     </row>
     <row r="126">
-      <c r="A126" s="70"/>
+      <c r="A126" s="71"/>
     </row>
     <row r="127">
-      <c r="A127" s="70"/>
+      <c r="A127" s="71"/>
     </row>
     <row r="128">
-      <c r="A128" s="70"/>
+      <c r="A128" s="71"/>
     </row>
     <row r="129">
-      <c r="A129" s="70"/>
+      <c r="A129" s="71"/>
     </row>
     <row r="130">
-      <c r="A130" s="70"/>
+      <c r="A130" s="71"/>
     </row>
     <row r="131">
-      <c r="A131" s="70"/>
+      <c r="A131" s="71"/>
     </row>
     <row r="132">
-      <c r="A132" s="70"/>
+      <c r="A132" s="71"/>
     </row>
     <row r="133">
-      <c r="A133" s="70"/>
+      <c r="A133" s="71"/>
     </row>
     <row r="134">
-      <c r="A134" s="70"/>
+      <c r="A134" s="71"/>
     </row>
     <row r="135">
-      <c r="A135" s="70"/>
+      <c r="A135" s="71"/>
     </row>
     <row r="136">
-      <c r="A136" s="70"/>
+      <c r="A136" s="71"/>
     </row>
     <row r="137">
-      <c r="A137" s="70"/>
+      <c r="A137" s="71"/>
     </row>
     <row r="138">
-      <c r="A138" s="70"/>
+      <c r="A138" s="71"/>
     </row>
     <row r="139">
-      <c r="A139" s="70"/>
+      <c r="A139" s="71"/>
     </row>
     <row r="140">
-      <c r="A140" s="70"/>
+      <c r="A140" s="71"/>
     </row>
     <row r="141">
-      <c r="A141" s="70"/>
+      <c r="A141" s="71"/>
     </row>
     <row r="142">
-      <c r="A142" s="70"/>
+      <c r="A142" s="71"/>
     </row>
     <row r="143">
-      <c r="A143" s="70"/>
+      <c r="A143" s="71"/>
     </row>
     <row r="144">
-      <c r="A144" s="70"/>
+      <c r="A144" s="71"/>
     </row>
     <row r="145">
-      <c r="A145" s="70"/>
+      <c r="A145" s="71"/>
     </row>
     <row r="146">
-      <c r="A146" s="70"/>
+      <c r="A146" s="71"/>
     </row>
     <row r="147">
-      <c r="A147" s="70"/>
+      <c r="A147" s="71"/>
     </row>
     <row r="148">
-      <c r="A148" s="70"/>
+      <c r="A148" s="71"/>
     </row>
     <row r="149">
-      <c r="A149" s="70"/>
+      <c r="A149" s="71"/>
     </row>
     <row r="150">
-      <c r="A150" s="70"/>
+      <c r="A150" s="71"/>
     </row>
     <row r="151">
-      <c r="A151" s="70"/>
+      <c r="A151" s="71"/>
     </row>
     <row r="152">
-      <c r="A152" s="70"/>
+      <c r="A152" s="71"/>
     </row>
     <row r="153">
-      <c r="A153" s="70"/>
+      <c r="A153" s="71"/>
     </row>
     <row r="154">
-      <c r="A154" s="70"/>
+      <c r="A154" s="71"/>
     </row>
     <row r="155">
-      <c r="A155" s="70"/>
+      <c r="A155" s="71"/>
     </row>
     <row r="156">
-      <c r="A156" s="70"/>
+      <c r="A156" s="71"/>
     </row>
     <row r="157">
-      <c r="A157" s="70"/>
+      <c r="A157" s="71"/>
     </row>
     <row r="158">
-      <c r="A158" s="70"/>
+      <c r="A158" s="71"/>
     </row>
     <row r="159">
-      <c r="A159" s="70"/>
+      <c r="A159" s="71"/>
     </row>
     <row r="160">
-      <c r="A160" s="70"/>
+      <c r="A160" s="71"/>
     </row>
     <row r="161">
-      <c r="A161" s="70"/>
+      <c r="A161" s="71"/>
     </row>
     <row r="162">
-      <c r="A162" s="70"/>
+      <c r="A162" s="71"/>
     </row>
     <row r="163">
-      <c r="A163" s="70"/>
+      <c r="A163" s="71"/>
     </row>
     <row r="164">
-      <c r="A164" s="70"/>
+      <c r="A164" s="71"/>
     </row>
     <row r="165">
-      <c r="A165" s="70"/>
+      <c r="A165" s="71"/>
     </row>
     <row r="166">
-      <c r="A166" s="70"/>
+      <c r="A166" s="71"/>
     </row>
     <row r="167">
-      <c r="A167" s="70"/>
+      <c r="A167" s="71"/>
     </row>
     <row r="168">
-      <c r="A168" s="70"/>
+      <c r="A168" s="71"/>
     </row>
     <row r="169">
-      <c r="A169" s="70"/>
+      <c r="A169" s="71"/>
     </row>
     <row r="170">
-      <c r="A170" s="70"/>
+      <c r="A170" s="71"/>
     </row>
     <row r="171">
-      <c r="A171" s="70"/>
+      <c r="A171" s="71"/>
     </row>
     <row r="172">
-      <c r="A172" s="70"/>
+      <c r="A172" s="71"/>
     </row>
     <row r="173">
-      <c r="A173" s="70"/>
+      <c r="A173" s="71"/>
     </row>
     <row r="174">
-      <c r="A174" s="70"/>
+      <c r="A174" s="71"/>
     </row>
     <row r="175">
-      <c r="A175" s="70"/>
+      <c r="A175" s="71"/>
     </row>
     <row r="176">
-      <c r="A176" s="70"/>
+      <c r="A176" s="71"/>
     </row>
     <row r="177">
-      <c r="A177" s="70"/>
+      <c r="A177" s="71"/>
     </row>
     <row r="178">
-      <c r="A178" s="70"/>
+      <c r="A178" s="71"/>
     </row>
     <row r="179">
-      <c r="A179" s="70"/>
+      <c r="A179" s="71"/>
     </row>
     <row r="180">
-      <c r="A180" s="70"/>
+      <c r="A180" s="71"/>
     </row>
     <row r="181">
-      <c r="A181" s="70"/>
+      <c r="A181" s="71"/>
     </row>
     <row r="182">
-      <c r="A182" s="70"/>
+      <c r="A182" s="71"/>
     </row>
     <row r="183">
-      <c r="A183" s="70"/>
+      <c r="A183" s="71"/>
     </row>
     <row r="184">
-      <c r="A184" s="70"/>
+      <c r="A184" s="71"/>
     </row>
     <row r="185">
-      <c r="A185" s="70"/>
+      <c r="A185" s="71"/>
     </row>
     <row r="186">
-      <c r="A186" s="70"/>
+      <c r="A186" s="71"/>
     </row>
     <row r="187">
-      <c r="A187" s="70"/>
+      <c r="A187" s="71"/>
     </row>
     <row r="188">
-      <c r="A188" s="70"/>
+      <c r="A188" s="71"/>
     </row>
     <row r="189">
-      <c r="A189" s="70"/>
+      <c r="A189" s="71"/>
     </row>
     <row r="190">
-      <c r="A190" s="70"/>
+      <c r="A190" s="71"/>
     </row>
     <row r="191">
-      <c r="A191" s="70"/>
+      <c r="A191" s="71"/>
     </row>
     <row r="192">
-      <c r="A192" s="70"/>
+      <c r="A192" s="71"/>
     </row>
     <row r="193">
-      <c r="A193" s="70"/>
+      <c r="A193" s="71"/>
     </row>
     <row r="194">
-      <c r="A194" s="70"/>
+      <c r="A194" s="71"/>
     </row>
     <row r="195">
-      <c r="A195" s="70"/>
+      <c r="A195" s="71"/>
     </row>
     <row r="196">
-      <c r="A196" s="70"/>
+      <c r="A196" s="71"/>
     </row>
     <row r="197">
-      <c r="A197" s="70"/>
+      <c r="A197" s="71"/>
     </row>
     <row r="198">
-      <c r="A198" s="70"/>
+      <c r="A198" s="71"/>
     </row>
     <row r="199">
-      <c r="A199" s="70"/>
+      <c r="A199" s="71"/>
     </row>
     <row r="200">
-      <c r="A200" s="70"/>
+      <c r="A200" s="71"/>
     </row>
     <row r="201">
-      <c r="A201" s="70"/>
+      <c r="A201" s="71"/>
     </row>
     <row r="202">
-      <c r="A202" s="70"/>
+      <c r="A202" s="71"/>
     </row>
     <row r="203">
-      <c r="A203" s="70"/>
+      <c r="A203" s="71"/>
     </row>
     <row r="204">
-      <c r="A204" s="70"/>
+      <c r="A204" s="71"/>
     </row>
     <row r="205">
-      <c r="A205" s="70"/>
+      <c r="A205" s="71"/>
     </row>
     <row r="206">
-      <c r="A206" s="70"/>
+      <c r="A206" s="71"/>
     </row>
     <row r="207">
-      <c r="A207" s="70"/>
+      <c r="A207" s="71"/>
     </row>
     <row r="208">
-      <c r="A208" s="70"/>
+      <c r="A208" s="71"/>
     </row>
     <row r="209">
-      <c r="A209" s="70"/>
+      <c r="A209" s="71"/>
     </row>
     <row r="210">
-      <c r="A210" s="70"/>
+      <c r="A210" s="71"/>
     </row>
     <row r="211">
-      <c r="A211" s="70"/>
+      <c r="A211" s="71"/>
     </row>
     <row r="212">
-      <c r="A212" s="70"/>
+      <c r="A212" s="71"/>
     </row>
     <row r="213">
-      <c r="A213" s="70"/>
+      <c r="A213" s="71"/>
     </row>
     <row r="214">
-      <c r="A214" s="70"/>
+      <c r="A214" s="71"/>
     </row>
     <row r="215">
-      <c r="A215" s="70"/>
+      <c r="A215" s="71"/>
     </row>
     <row r="216">
-      <c r="A216" s="70"/>
+      <c r="A216" s="71"/>
     </row>
     <row r="217">
-      <c r="A217" s="70"/>
+      <c r="A217" s="71"/>
     </row>
     <row r="218">
-      <c r="A218" s="70"/>
+      <c r="A218" s="71"/>
     </row>
     <row r="219">
-      <c r="A219" s="70"/>
+      <c r="A219" s="71"/>
     </row>
     <row r="220">
-      <c r="A220" s="70"/>
+      <c r="A220" s="71"/>
     </row>
     <row r="221">
-      <c r="A221" s="70"/>
+      <c r="A221" s="71"/>
     </row>
     <row r="222">
-      <c r="A222" s="70"/>
+      <c r="A222" s="71"/>
     </row>
     <row r="223">
-      <c r="A223" s="70"/>
+      <c r="A223" s="71"/>
     </row>
     <row r="224">
-      <c r="A224" s="70"/>
+      <c r="A224" s="71"/>
     </row>
     <row r="225">
-      <c r="A225" s="70"/>
+      <c r="A225" s="71"/>
     </row>
     <row r="226">
-      <c r="A226" s="70"/>
+      <c r="A226" s="71"/>
     </row>
     <row r="227">
-      <c r="A227" s="70"/>
+      <c r="A227" s="71"/>
     </row>
     <row r="228">
-      <c r="A228" s="70"/>
+      <c r="A228" s="71"/>
     </row>
     <row r="229">
-      <c r="A229" s="70"/>
+      <c r="A229" s="71"/>
     </row>
     <row r="230">
-      <c r="A230" s="70"/>
+      <c r="A230" s="71"/>
     </row>
     <row r="231">
-      <c r="A231" s="70"/>
+      <c r="A231" s="71"/>
     </row>
     <row r="232">
-      <c r="A232" s="70"/>
+      <c r="A232" s="71"/>
     </row>
     <row r="233">
-      <c r="A233" s="70"/>
+      <c r="A233" s="71"/>
     </row>
     <row r="234">
-      <c r="A234" s="70"/>
+      <c r="A234" s="71"/>
     </row>
     <row r="235">
-      <c r="A235" s="70"/>
+      <c r="A235" s="71"/>
     </row>
     <row r="236">
-      <c r="A236" s="70"/>
+      <c r="A236" s="71"/>
     </row>
     <row r="237">
-      <c r="A237" s="70"/>
+      <c r="A237" s="71"/>
     </row>
     <row r="238">
-      <c r="A238" s="70"/>
+      <c r="A238" s="71"/>
     </row>
     <row r="239">
-      <c r="A239" s="70"/>
+      <c r="A239" s="71"/>
     </row>
     <row r="240">
-      <c r="A240" s="70"/>
+      <c r="A240" s="71"/>
     </row>
     <row r="241">
-      <c r="A241" s="70"/>
+      <c r="A241" s="71"/>
     </row>
     <row r="242">
-      <c r="A242" s="70"/>
+      <c r="A242" s="71"/>
     </row>
     <row r="243">
-      <c r="A243" s="70"/>
+      <c r="A243" s="71"/>
     </row>
     <row r="244">
-      <c r="A244" s="70"/>
+      <c r="A244" s="71"/>
     </row>
     <row r="245">
-      <c r="A245" s="70"/>
+      <c r="A245" s="71"/>
     </row>
     <row r="246">
-      <c r="A246" s="70"/>
+      <c r="A246" s="71"/>
     </row>
     <row r="247">
-      <c r="A247" s="70"/>
+      <c r="A247" s="71"/>
     </row>
     <row r="248">
-      <c r="A248" s="70"/>
+      <c r="A248" s="71"/>
     </row>
     <row r="249">
-      <c r="A249" s="70"/>
+      <c r="A249" s="71"/>
     </row>
     <row r="250">
-      <c r="A250" s="70"/>
+      <c r="A250" s="71"/>
     </row>
     <row r="251">
-      <c r="A251" s="70"/>
+      <c r="A251" s="71"/>
     </row>
     <row r="252">
-      <c r="A252" s="70"/>
+      <c r="A252" s="71"/>
     </row>
     <row r="253">
-      <c r="A253" s="70"/>
+      <c r="A253" s="71"/>
     </row>
     <row r="254">
-      <c r="A254" s="70"/>
+      <c r="A254" s="71"/>
     </row>
     <row r="255">
-      <c r="A255" s="70"/>
+      <c r="A255" s="71"/>
     </row>
     <row r="256">
-      <c r="A256" s="70"/>
+      <c r="A256" s="71"/>
     </row>
     <row r="257">
-      <c r="A257" s="70"/>
+      <c r="A257" s="71"/>
     </row>
     <row r="258">
-      <c r="A258" s="70"/>
+      <c r="A258" s="71"/>
     </row>
     <row r="259">
-      <c r="A259" s="70"/>
+      <c r="A259" s="71"/>
     </row>
     <row r="260">
-      <c r="A260" s="70"/>
+      <c r="A260" s="71"/>
     </row>
     <row r="261">
-      <c r="A261" s="70"/>
+      <c r="A261" s="71"/>
     </row>
     <row r="262">
-      <c r="A262" s="70"/>
+      <c r="A262" s="71"/>
     </row>
     <row r="263">
-      <c r="A263" s="70"/>
+      <c r="A263" s="71"/>
     </row>
     <row r="264">
-      <c r="A264" s="70"/>
+      <c r="A264" s="71"/>
     </row>
     <row r="265">
-      <c r="A265" s="70"/>
+      <c r="A265" s="71"/>
     </row>
     <row r="266">
-      <c r="A266" s="70"/>
+      <c r="A266" s="71"/>
     </row>
     <row r="267">
-      <c r="A267" s="70"/>
+      <c r="A267" s="71"/>
     </row>
     <row r="268">
-      <c r="A268" s="70"/>
+      <c r="A268" s="71"/>
     </row>
     <row r="269">
-      <c r="A269" s="70"/>
+      <c r="A269" s="71"/>
     </row>
     <row r="270">
-      <c r="A270" s="70"/>
+      <c r="A270" s="71"/>
     </row>
     <row r="271">
-      <c r="A271" s="70"/>
+      <c r="A271" s="71"/>
     </row>
     <row r="272">
-      <c r="A272" s="70"/>
+      <c r="A272" s="71"/>
     </row>
     <row r="273">
-      <c r="A273" s="70"/>
+      <c r="A273" s="71"/>
     </row>
     <row r="274">
-      <c r="A274" s="70"/>
+      <c r="A274" s="71"/>
     </row>
     <row r="275">
-      <c r="A275" s="70"/>
+      <c r="A275" s="71"/>
     </row>
     <row r="276">
-      <c r="A276" s="70"/>
+      <c r="A276" s="71"/>
     </row>
     <row r="277">
-      <c r="A277" s="70"/>
+      <c r="A277" s="71"/>
     </row>
     <row r="278">
-      <c r="A278" s="70"/>
+      <c r="A278" s="71"/>
     </row>
     <row r="279">
-      <c r="A279" s="70"/>
+      <c r="A279" s="71"/>
     </row>
     <row r="280">
-      <c r="A280" s="70"/>
+      <c r="A280" s="71"/>
     </row>
     <row r="281">
-      <c r="A281" s="70"/>
+      <c r="A281" s="71"/>
     </row>
     <row r="282">
-      <c r="A282" s="70"/>
+      <c r="A282" s="71"/>
     </row>
     <row r="283">
-      <c r="A283" s="70"/>
+      <c r="A283" s="71"/>
     </row>
     <row r="284">
-      <c r="A284" s="70"/>
+      <c r="A284" s="71"/>
     </row>
     <row r="285">
-      <c r="A285" s="70"/>
+      <c r="A285" s="71"/>
     </row>
     <row r="286">
-      <c r="A286" s="70"/>
+      <c r="A286" s="71"/>
     </row>
     <row r="287">
-      <c r="A287" s="70"/>
+      <c r="A287" s="71"/>
     </row>
     <row r="288">
-      <c r="A288" s="70"/>
+      <c r="A288" s="71"/>
     </row>
     <row r="289">
-      <c r="A289" s="70"/>
+      <c r="A289" s="71"/>
     </row>
     <row r="290">
-      <c r="A290" s="70"/>
+      <c r="A290" s="71"/>
     </row>
     <row r="291">
-      <c r="A291" s="70"/>
+      <c r="A291" s="71"/>
     </row>
     <row r="292">
-      <c r="A292" s="70"/>
+      <c r="A292" s="71"/>
     </row>
     <row r="293">
-      <c r="A293" s="70"/>
+      <c r="A293" s="71"/>
     </row>
     <row r="294">
-      <c r="A294" s="70"/>
+      <c r="A294" s="71"/>
     </row>
     <row r="295">
-      <c r="A295" s="70"/>
+      <c r="A295" s="71"/>
     </row>
     <row r="296">
-      <c r="A296" s="70"/>
+      <c r="A296" s="71"/>
     </row>
     <row r="297">
-      <c r="A297" s="70"/>
+      <c r="A297" s="71"/>
     </row>
     <row r="298">
-      <c r="A298" s="70"/>
+      <c r="A298" s="71"/>
     </row>
     <row r="299">
-      <c r="A299" s="70"/>
+      <c r="A299" s="71"/>
     </row>
     <row r="300">
-      <c r="A300" s="70"/>
+      <c r="A300" s="71"/>
     </row>
     <row r="301">
-      <c r="A301" s="70"/>
+      <c r="A301" s="71"/>
     </row>
     <row r="302">
-      <c r="A302" s="70"/>
+      <c r="A302" s="71"/>
     </row>
     <row r="303">
-      <c r="A303" s="70"/>
+      <c r="A303" s="71"/>
     </row>
     <row r="304">
-      <c r="A304" s="70"/>
+      <c r="A304" s="71"/>
     </row>
     <row r="305">
-      <c r="A305" s="70"/>
+      <c r="A305" s="71"/>
     </row>
     <row r="306">
-      <c r="A306" s="70"/>
+      <c r="A306" s="71"/>
     </row>
     <row r="307">
-      <c r="A307" s="70"/>
+      <c r="A307" s="71"/>
     </row>
     <row r="308">
-      <c r="A308" s="70"/>
+      <c r="A308" s="71"/>
     </row>
     <row r="309">
-      <c r="A309" s="70"/>
+      <c r="A309" s="71"/>
     </row>
     <row r="310">
-      <c r="A310" s="70"/>
+      <c r="A310" s="71"/>
     </row>
     <row r="311">
-      <c r="A311" s="70"/>
+      <c r="A311" s="71"/>
     </row>
     <row r="312">
-      <c r="A312" s="70"/>
+      <c r="A312" s="71"/>
     </row>
     <row r="313">
-      <c r="A313" s="70"/>
+      <c r="A313" s="71"/>
     </row>
     <row r="314">
-      <c r="A314" s="70"/>
+      <c r="A314" s="71"/>
     </row>
     <row r="315">
-      <c r="A315" s="70"/>
+      <c r="A315" s="71"/>
     </row>
     <row r="316">
-      <c r="A316" s="70"/>
+      <c r="A316" s="71"/>
     </row>
     <row r="317">
-      <c r="A317" s="70"/>
+      <c r="A317" s="71"/>
     </row>
     <row r="318">
-      <c r="A318" s="70"/>
+      <c r="A318" s="71"/>
     </row>
     <row r="319">
-      <c r="A319" s="70"/>
+      <c r="A319" s="71"/>
     </row>
     <row r="320">
-      <c r="A320" s="70"/>
+      <c r="A320" s="71"/>
     </row>
     <row r="321">
-      <c r="A321" s="70"/>
+      <c r="A321" s="71"/>
     </row>
     <row r="322">
-      <c r="A322" s="70"/>
+      <c r="A322" s="71"/>
     </row>
     <row r="323">
-      <c r="A323" s="70"/>
+      <c r="A323" s="71"/>
     </row>
     <row r="324">
-      <c r="A324" s="70"/>
+      <c r="A324" s="71"/>
     </row>
     <row r="325">
-      <c r="A325" s="70"/>
+      <c r="A325" s="71"/>
     </row>
     <row r="326">
-      <c r="A326" s="70"/>
+      <c r="A326" s="71"/>
     </row>
     <row r="327">
-      <c r="A327" s="70"/>
+      <c r="A327" s="71"/>
     </row>
     <row r="328">
-      <c r="A328" s="70"/>
+      <c r="A328" s="71"/>
     </row>
     <row r="329">
-      <c r="A329" s="70"/>
+      <c r="A329" s="71"/>
     </row>
     <row r="330">
-      <c r="A330" s="70"/>
+      <c r="A330" s="71"/>
     </row>
     <row r="331">
-      <c r="A331" s="70"/>
+      <c r="A331" s="71"/>
     </row>
     <row r="332">
-      <c r="A332" s="70"/>
+      <c r="A332" s="71"/>
     </row>
     <row r="333">
-      <c r="A333" s="70"/>
+      <c r="A333" s="71"/>
     </row>
     <row r="334">
-      <c r="A334" s="70"/>
+      <c r="A334" s="71"/>
     </row>
     <row r="335">
-      <c r="A335" s="70"/>
+      <c r="A335" s="71"/>
     </row>
     <row r="336">
-      <c r="A336" s="70"/>
+      <c r="A336" s="71"/>
     </row>
     <row r="337">
-      <c r="A337" s="70"/>
+      <c r="A337" s="71"/>
     </row>
     <row r="338">
-      <c r="A338" s="70"/>
+      <c r="A338" s="71"/>
     </row>
     <row r="339">
-      <c r="A339" s="70"/>
+      <c r="A339" s="71"/>
     </row>
     <row r="340">
-      <c r="A340" s="70"/>
+      <c r="A340" s="71"/>
     </row>
     <row r="341">
-      <c r="A341" s="70"/>
+      <c r="A341" s="71"/>
     </row>
     <row r="342">
-      <c r="A342" s="70"/>
+      <c r="A342" s="71"/>
     </row>
     <row r="343">
-      <c r="A343" s="70"/>
+      <c r="A343" s="71"/>
     </row>
     <row r="344">
-      <c r="A344" s="70"/>
+      <c r="A344" s="71"/>
     </row>
     <row r="345">
-      <c r="A345" s="70"/>
+      <c r="A345" s="71"/>
     </row>
     <row r="346">
-      <c r="A346" s="70"/>
+      <c r="A346" s="71"/>
     </row>
     <row r="347">
-      <c r="A347" s="70"/>
+      <c r="A347" s="71"/>
     </row>
     <row r="348">
-      <c r="A348" s="70"/>
+      <c r="A348" s="71"/>
     </row>
     <row r="349">
-      <c r="A349" s="70"/>
+      <c r="A349" s="71"/>
     </row>
     <row r="350">
-      <c r="A350" s="70"/>
+      <c r="A350" s="71"/>
     </row>
     <row r="351">
-      <c r="A351" s="70"/>
+      <c r="A351" s="71"/>
     </row>
     <row r="352">
-      <c r="A352" s="70"/>
+      <c r="A352" s="71"/>
     </row>
     <row r="353">
-      <c r="A353" s="70"/>
+      <c r="A353" s="71"/>
     </row>
     <row r="354">
-      <c r="A354" s="70"/>
+      <c r="A354" s="71"/>
     </row>
     <row r="355">
-      <c r="A355" s="70"/>
+      <c r="A355" s="71"/>
     </row>
     <row r="356">
-      <c r="A356" s="70"/>
+      <c r="A356" s="71"/>
     </row>
     <row r="357">
-      <c r="A357" s="70"/>
+      <c r="A357" s="71"/>
     </row>
     <row r="358">
-      <c r="A358" s="70"/>
+      <c r="A358" s="71"/>
     </row>
     <row r="359">
-      <c r="A359" s="70"/>
+      <c r="A359" s="71"/>
     </row>
     <row r="360">
-      <c r="A360" s="70"/>
+      <c r="A360" s="71"/>
     </row>
     <row r="361">
-      <c r="A361" s="70"/>
+      <c r="A361" s="71"/>
     </row>
     <row r="362">
-      <c r="A362" s="70"/>
+      <c r="A362" s="71"/>
     </row>
     <row r="363">
-      <c r="A363" s="70"/>
+      <c r="A363" s="71"/>
     </row>
     <row r="364">
-      <c r="A364" s="70"/>
+      <c r="A364" s="71"/>
     </row>
     <row r="365">
-      <c r="A365" s="70"/>
+      <c r="A365" s="71"/>
     </row>
     <row r="366">
-      <c r="A366" s="70"/>
+      <c r="A366" s="71"/>
     </row>
     <row r="367">
-      <c r="A367" s="70"/>
+      <c r="A367" s="71"/>
     </row>
     <row r="368">
-      <c r="A368" s="70"/>
+      <c r="A368" s="71"/>
     </row>
     <row r="369">
-      <c r="A369" s="70"/>
+      <c r="A369" s="71"/>
     </row>
     <row r="370">
-      <c r="A370" s="70"/>
+      <c r="A370" s="71"/>
     </row>
     <row r="371">
-      <c r="A371" s="70"/>
+      <c r="A371" s="71"/>
     </row>
     <row r="372">
-      <c r="A372" s="70"/>
+      <c r="A372" s="71"/>
     </row>
     <row r="373">
-      <c r="A373" s="70"/>
+      <c r="A373" s="71"/>
     </row>
     <row r="374">
-      <c r="A374" s="70"/>
+      <c r="A374" s="71"/>
     </row>
     <row r="375">
-      <c r="A375" s="70"/>
+      <c r="A375" s="71"/>
     </row>
     <row r="376">
-      <c r="A376" s="70"/>
+      <c r="A376" s="71"/>
     </row>
     <row r="377">
-      <c r="A377" s="70"/>
+      <c r="A377" s="71"/>
     </row>
     <row r="378">
-      <c r="A378" s="70"/>
+      <c r="A378" s="71"/>
     </row>
     <row r="379">
-      <c r="A379" s="70"/>
+      <c r="A379" s="71"/>
     </row>
     <row r="380">
-      <c r="A380" s="70"/>
+      <c r="A380" s="71"/>
     </row>
     <row r="381">
-      <c r="A381" s="70"/>
+      <c r="A381" s="71"/>
     </row>
     <row r="382">
-      <c r="A382" s="70"/>
+      <c r="A382" s="71"/>
     </row>
     <row r="383">
-      <c r="A383" s="70"/>
+      <c r="A383" s="71"/>
     </row>
     <row r="384">
-      <c r="A384" s="70"/>
+      <c r="A384" s="71"/>
     </row>
     <row r="385">
-      <c r="A385" s="70"/>
+      <c r="A385" s="71"/>
     </row>
     <row r="386">
-      <c r="A386" s="70"/>
+      <c r="A386" s="71"/>
     </row>
     <row r="387">
-      <c r="A387" s="70"/>
+      <c r="A387" s="71"/>
     </row>
     <row r="388">
-      <c r="A388" s="70"/>
+      <c r="A388" s="71"/>
     </row>
     <row r="389">
-      <c r="A389" s="70"/>
+      <c r="A389" s="71"/>
     </row>
     <row r="390">
-      <c r="A390" s="70"/>
+      <c r="A390" s="71"/>
     </row>
     <row r="391">
-      <c r="A391" s="70"/>
+      <c r="A391" s="71"/>
     </row>
     <row r="392">
-      <c r="A392" s="70"/>
+      <c r="A392" s="71"/>
     </row>
     <row r="393">
-      <c r="A393" s="70"/>
+      <c r="A393" s="71"/>
     </row>
     <row r="394">
-      <c r="A394" s="70"/>
+      <c r="A394" s="71"/>
     </row>
     <row r="395">
-      <c r="A395" s="70"/>
+      <c r="A395" s="71"/>
     </row>
     <row r="396">
-      <c r="A396" s="70"/>
+      <c r="A396" s="71"/>
     </row>
     <row r="397">
-      <c r="A397" s="70"/>
+      <c r="A397" s="71"/>
     </row>
     <row r="398">
-      <c r="A398" s="70"/>
+      <c r="A398" s="71"/>
     </row>
     <row r="399">
-      <c r="A399" s="70"/>
+      <c r="A399" s="71"/>
     </row>
     <row r="400">
-      <c r="A400" s="70"/>
+      <c r="A400" s="71"/>
     </row>
     <row r="401">
-      <c r="A401" s="70"/>
+      <c r="A401" s="71"/>
     </row>
     <row r="402">
-      <c r="A402" s="70"/>
+      <c r="A402" s="71"/>
     </row>
     <row r="403">
-      <c r="A403" s="70"/>
+      <c r="A403" s="71"/>
     </row>
     <row r="404">
-      <c r="A404" s="70"/>
+      <c r="A404" s="71"/>
     </row>
     <row r="405">
-      <c r="A405" s="70"/>
+      <c r="A405" s="71"/>
     </row>
     <row r="406">
-      <c r="A406" s="70"/>
+      <c r="A406" s="71"/>
     </row>
     <row r="407">
-      <c r="A407" s="70"/>
+      <c r="A407" s="71"/>
     </row>
     <row r="408">
-      <c r="A408" s="70"/>
+      <c r="A408" s="71"/>
     </row>
     <row r="409">
-      <c r="A409" s="70"/>
+      <c r="A409" s="71"/>
     </row>
     <row r="410">
-      <c r="A410" s="70"/>
+      <c r="A410" s="71"/>
     </row>
     <row r="411">
-      <c r="A411" s="70"/>
+      <c r="A411" s="71"/>
     </row>
     <row r="412">
-      <c r="A412" s="70"/>
+      <c r="A412" s="71"/>
     </row>
     <row r="413">
-      <c r="A413" s="70"/>
+      <c r="A413" s="71"/>
     </row>
     <row r="414">
-      <c r="A414" s="70"/>
+      <c r="A414" s="71"/>
     </row>
     <row r="415">
-      <c r="A415" s="70"/>
+      <c r="A415" s="71"/>
     </row>
     <row r="416">
-      <c r="A416" s="70"/>
+      <c r="A416" s="71"/>
     </row>
     <row r="417">
-      <c r="A417" s="70"/>
+      <c r="A417" s="71"/>
     </row>
     <row r="418">
-      <c r="A418" s="70"/>
+      <c r="A418" s="71"/>
     </row>
     <row r="419">
-      <c r="A419" s="70"/>
+      <c r="A419" s="71"/>
     </row>
     <row r="420">
-      <c r="A420" s="70"/>
+      <c r="A420" s="71"/>
     </row>
     <row r="421">
-      <c r="A421" s="70"/>
+      <c r="A421" s="71"/>
     </row>
     <row r="422">
-      <c r="A422" s="70"/>
+      <c r="A422" s="71"/>
     </row>
     <row r="423">
-      <c r="A423" s="70"/>
+      <c r="A423" s="71"/>
     </row>
     <row r="424">
-      <c r="A424" s="70"/>
+      <c r="A424" s="71"/>
     </row>
     <row r="425">
-      <c r="A425" s="70"/>
+      <c r="A425" s="71"/>
     </row>
     <row r="426">
-      <c r="A426" s="70"/>
+      <c r="A426" s="71"/>
     </row>
     <row r="427">
-      <c r="A427" s="70"/>
+      <c r="A427" s="71"/>
     </row>
     <row r="428">
-      <c r="A428" s="70"/>
+      <c r="A428" s="71"/>
     </row>
     <row r="429">
-      <c r="A429" s="70"/>
+      <c r="A429" s="71"/>
     </row>
     <row r="430">
-      <c r="A430" s="70"/>
+      <c r="A430" s="71"/>
     </row>
     <row r="431">
-      <c r="A431" s="70"/>
+      <c r="A431" s="71"/>
     </row>
     <row r="432">
-      <c r="A432" s="70"/>
+      <c r="A432" s="71"/>
     </row>
     <row r="433">
-      <c r="A433" s="70"/>
+      <c r="A433" s="71"/>
     </row>
     <row r="434">
-      <c r="A434" s="70"/>
+      <c r="A434" s="71"/>
     </row>
     <row r="435">
-      <c r="A435" s="70"/>
+      <c r="A435" s="71"/>
     </row>
     <row r="436">
-      <c r="A436" s="70"/>
+      <c r="A436" s="71"/>
     </row>
     <row r="437">
-      <c r="A437" s="70"/>
+      <c r="A437" s="71"/>
     </row>
     <row r="438">
-      <c r="A438" s="70"/>
+      <c r="A438" s="71"/>
     </row>
     <row r="439">
-      <c r="A439" s="70"/>
+      <c r="A439" s="71"/>
     </row>
     <row r="440">
-      <c r="A440" s="70"/>
+      <c r="A440" s="71"/>
     </row>
     <row r="441">
-      <c r="A441" s="70"/>
+      <c r="A441" s="71"/>
     </row>
     <row r="442">
-      <c r="A442" s="70"/>
+      <c r="A442" s="71"/>
     </row>
     <row r="443">
-      <c r="A443" s="70"/>
+      <c r="A443" s="71"/>
     </row>
     <row r="444">
-      <c r="A444" s="70"/>
+      <c r="A444" s="71"/>
     </row>
     <row r="445">
-      <c r="A445" s="70"/>
+      <c r="A445" s="71"/>
     </row>
     <row r="446">
-      <c r="A446" s="70"/>
+      <c r="A446" s="71"/>
     </row>
     <row r="447">
-      <c r="A447" s="70"/>
+      <c r="A447" s="71"/>
     </row>
     <row r="448">
-      <c r="A448" s="70"/>
+      <c r="A448" s="71"/>
     </row>
     <row r="449">
-      <c r="A449" s="70"/>
+      <c r="A449" s="71"/>
     </row>
     <row r="450">
-      <c r="A450" s="70"/>
+      <c r="A450" s="71"/>
     </row>
     <row r="451">
-      <c r="A451" s="70"/>
+      <c r="A451" s="71"/>
     </row>
     <row r="452">
-      <c r="A452" s="70"/>
+      <c r="A452" s="71"/>
     </row>
     <row r="453">
-      <c r="A453" s="70"/>
+      <c r="A453" s="71"/>
     </row>
     <row r="454">
-      <c r="A454" s="70"/>
+      <c r="A454" s="71"/>
     </row>
     <row r="455">
-      <c r="A455" s="70"/>
+      <c r="A455" s="71"/>
     </row>
     <row r="456">
-      <c r="A456" s="70"/>
+      <c r="A456" s="71"/>
     </row>
     <row r="457">
-      <c r="A457" s="70"/>
+      <c r="A457" s="71"/>
     </row>
     <row r="458">
-      <c r="A458" s="70"/>
+      <c r="A458" s="71"/>
     </row>
     <row r="459">
-      <c r="A459" s="70"/>
+      <c r="A459" s="71"/>
     </row>
     <row r="460">
-      <c r="A460" s="70"/>
+      <c r="A460" s="71"/>
     </row>
     <row r="461">
-      <c r="A461" s="70"/>
+      <c r="A461" s="71"/>
     </row>
     <row r="462">
-      <c r="A462" s="70"/>
+      <c r="A462" s="71"/>
     </row>
     <row r="463">
-      <c r="A463" s="70"/>
+      <c r="A463" s="71"/>
     </row>
     <row r="464">
-      <c r="A464" s="70"/>
+      <c r="A464" s="71"/>
     </row>
     <row r="465">
-      <c r="A465" s="70"/>
+      <c r="A465" s="71"/>
     </row>
     <row r="466">
-      <c r="A466" s="70"/>
+      <c r="A466" s="71"/>
     </row>
     <row r="467">
-      <c r="A467" s="70"/>
+      <c r="A467" s="71"/>
     </row>
     <row r="468">
-      <c r="A468" s="70"/>
+      <c r="A468" s="71"/>
     </row>
     <row r="469">
-      <c r="A469" s="70"/>
+      <c r="A469" s="71"/>
     </row>
     <row r="470">
-      <c r="A470" s="70"/>
+      <c r="A470" s="71"/>
     </row>
     <row r="471">
-      <c r="A471" s="70"/>
+      <c r="A471" s="71"/>
     </row>
     <row r="472">
-      <c r="A472" s="70"/>
+      <c r="A472" s="71"/>
     </row>
     <row r="473">
-      <c r="A473" s="70"/>
+      <c r="A473" s="71"/>
     </row>
     <row r="474">
-      <c r="A474" s="70"/>
+      <c r="A474" s="71"/>
     </row>
     <row r="475">
-      <c r="A475" s="70"/>
+      <c r="A475" s="71"/>
     </row>
     <row r="476">
-      <c r="A476" s="70"/>
+      <c r="A476" s="71"/>
     </row>
     <row r="477">
-      <c r="A477" s="70"/>
+      <c r="A477" s="71"/>
     </row>
     <row r="478">
-      <c r="A478" s="70"/>
+      <c r="A478" s="71"/>
     </row>
     <row r="479">
-      <c r="A479" s="70"/>
+      <c r="A479" s="71"/>
     </row>
     <row r="480">
-      <c r="A480" s="70"/>
+      <c r="A480" s="71"/>
     </row>
     <row r="481">
-      <c r="A481" s="70"/>
+      <c r="A481" s="71"/>
     </row>
     <row r="482">
-      <c r="A482" s="70"/>
+      <c r="A482" s="71"/>
     </row>
     <row r="483">
-      <c r="A483" s="70"/>
+      <c r="A483" s="71"/>
     </row>
     <row r="484">
-      <c r="A484" s="70"/>
+      <c r="A484" s="71"/>
     </row>
     <row r="485">
-      <c r="A485" s="70"/>
+      <c r="A485" s="71"/>
     </row>
     <row r="486">
-      <c r="A486" s="70"/>
+      <c r="A486" s="71"/>
     </row>
     <row r="487">
-      <c r="A487" s="70"/>
+      <c r="A487" s="71"/>
     </row>
     <row r="488">
-      <c r="A488" s="70"/>
+      <c r="A488" s="71"/>
     </row>
     <row r="489">
-      <c r="A489" s="70"/>
+      <c r="A489" s="71"/>
     </row>
     <row r="490">
-      <c r="A490" s="70"/>
+      <c r="A490" s="71"/>
     </row>
     <row r="491">
-      <c r="A491" s="70"/>
+      <c r="A491" s="71"/>
     </row>
     <row r="492">
-      <c r="A492" s="70"/>
+      <c r="A492" s="71"/>
     </row>
     <row r="493">
-      <c r="A493" s="70"/>
+      <c r="A493" s="71"/>
     </row>
     <row r="494">
-      <c r="A494" s="70"/>
+      <c r="A494" s="71"/>
     </row>
     <row r="495">
-      <c r="A495" s="70"/>
+      <c r="A495" s="71"/>
     </row>
     <row r="496">
-      <c r="A496" s="70"/>
+      <c r="A496" s="71"/>
     </row>
     <row r="497">
-      <c r="A497" s="70"/>
+      <c r="A497" s="71"/>
     </row>
     <row r="498">
-      <c r="A498" s="70"/>
+      <c r="A498" s="71"/>
     </row>
     <row r="499">
-      <c r="A499" s="70"/>
+      <c r="A499" s="71"/>
     </row>
     <row r="500">
-      <c r="A500" s="70"/>
+      <c r="A500" s="71"/>
     </row>
     <row r="501">
-      <c r="A501" s="70"/>
+      <c r="A501" s="71"/>
     </row>
     <row r="502">
-      <c r="A502" s="70"/>
+      <c r="A502" s="71"/>
     </row>
     <row r="503">
-      <c r="A503" s="70"/>
+      <c r="A503" s="71"/>
     </row>
     <row r="504">
-      <c r="A504" s="70"/>
+      <c r="A504" s="71"/>
     </row>
     <row r="505">
-      <c r="A505" s="70"/>
+      <c r="A505" s="71"/>
     </row>
     <row r="506">
-      <c r="A506" s="70"/>
+      <c r="A506" s="71"/>
     </row>
     <row r="507">
-      <c r="A507" s="70"/>
+      <c r="A507" s="71"/>
     </row>
     <row r="508">
-      <c r="A508" s="70"/>
+      <c r="A508" s="71"/>
     </row>
     <row r="509">
-      <c r="A509" s="70"/>
+      <c r="A509" s="71"/>
     </row>
     <row r="510">
-      <c r="A510" s="70"/>
+      <c r="A510" s="71"/>
     </row>
     <row r="511">
-      <c r="A511" s="70"/>
+      <c r="A511" s="71"/>
     </row>
     <row r="512">
-      <c r="A512" s="70"/>
+      <c r="A512" s="71"/>
     </row>
     <row r="513">
-      <c r="A513" s="70"/>
+      <c r="A513" s="71"/>
     </row>
     <row r="514">
-      <c r="A514" s="70"/>
+      <c r="A514" s="71"/>
     </row>
     <row r="515">
-      <c r="A515" s="70"/>
+      <c r="A515" s="71"/>
     </row>
     <row r="516">
-      <c r="A516" s="70"/>
+      <c r="A516" s="71"/>
     </row>
     <row r="517">
-      <c r="A517" s="70"/>
+      <c r="A517" s="71"/>
     </row>
     <row r="518">
-      <c r="A518" s="70"/>
+      <c r="A518" s="71"/>
     </row>
     <row r="519">
-      <c r="A519" s="70"/>
+      <c r="A519" s="71"/>
     </row>
     <row r="520">
-      <c r="A520" s="70"/>
+      <c r="A520" s="71"/>
     </row>
     <row r="521">
-      <c r="A521" s="70"/>
+      <c r="A521" s="71"/>
     </row>
     <row r="522">
-      <c r="A522" s="70"/>
+      <c r="A522" s="71"/>
     </row>
     <row r="523">
-      <c r="A523" s="70"/>
+      <c r="A523" s="71"/>
     </row>
     <row r="524">
-      <c r="A524" s="70"/>
+      <c r="A524" s="71"/>
     </row>
     <row r="525">
-      <c r="A525" s="70"/>
+      <c r="A525" s="71"/>
     </row>
     <row r="526">
-      <c r="A526" s="70"/>
+      <c r="A526" s="71"/>
     </row>
     <row r="527">
-      <c r="A527" s="70"/>
+      <c r="A527" s="71"/>
     </row>
     <row r="528">
-      <c r="A528" s="70"/>
+      <c r="A528" s="71"/>
     </row>
     <row r="529">
-      <c r="A529" s="70"/>
+      <c r="A529" s="71"/>
     </row>
     <row r="530">
-      <c r="A530" s="70"/>
+      <c r="A530" s="71"/>
     </row>
     <row r="531">
-      <c r="A531" s="70"/>
+      <c r="A531" s="71"/>
     </row>
     <row r="532">
-      <c r="A532" s="70"/>
+      <c r="A532" s="71"/>
     </row>
     <row r="533">
-      <c r="A533" s="70"/>
+      <c r="A533" s="71"/>
     </row>
     <row r="534">
-      <c r="A534" s="70"/>
+      <c r="A534" s="71"/>
     </row>
     <row r="535">
-      <c r="A535" s="70"/>
+      <c r="A535" s="71"/>
     </row>
     <row r="536">
-      <c r="A536" s="70"/>
+      <c r="A536" s="71"/>
     </row>
     <row r="537">
-      <c r="A537" s="70"/>
+      <c r="A537" s="71"/>
     </row>
     <row r="538">
-      <c r="A538" s="70"/>
+      <c r="A538" s="71"/>
     </row>
     <row r="539">
-      <c r="A539" s="70"/>
+      <c r="A539" s="71"/>
     </row>
     <row r="540">
-      <c r="A540" s="70"/>
+      <c r="A540" s="71"/>
     </row>
     <row r="541">
-      <c r="A541" s="70"/>
+      <c r="A541" s="71"/>
     </row>
     <row r="542">
-      <c r="A542" s="70"/>
+      <c r="A542" s="71"/>
     </row>
     <row r="543">
-      <c r="A543" s="70"/>
+      <c r="A543" s="71"/>
     </row>
     <row r="544">
-      <c r="A544" s="70"/>
+      <c r="A544" s="71"/>
     </row>
     <row r="545">
-      <c r="A545" s="70"/>
+      <c r="A545" s="71"/>
     </row>
     <row r="546">
-      <c r="A546" s="70"/>
+      <c r="A546" s="71"/>
     </row>
     <row r="547">
-      <c r="A547" s="70"/>
+      <c r="A547" s="71"/>
     </row>
     <row r="548">
-      <c r="A548" s="70"/>
+      <c r="A548" s="71"/>
     </row>
     <row r="549">
-      <c r="A549" s="70"/>
+      <c r="A549" s="71"/>
     </row>
     <row r="550">
-      <c r="A550" s="70"/>
+      <c r="A550" s="71"/>
     </row>
     <row r="551">
-      <c r="A551" s="70"/>
+      <c r="A551" s="71"/>
     </row>
     <row r="552">
-      <c r="A552" s="70"/>
+      <c r="A552" s="71"/>
     </row>
     <row r="553">
-      <c r="A553" s="70"/>
+      <c r="A553" s="71"/>
     </row>
     <row r="554">
-      <c r="A554" s="70"/>
+      <c r="A554" s="71"/>
     </row>
     <row r="555">
-      <c r="A555" s="70"/>
+      <c r="A555" s="71"/>
     </row>
     <row r="556">
-      <c r="A556" s="70"/>
+      <c r="A556" s="71"/>
     </row>
     <row r="557">
-      <c r="A557" s="70"/>
+      <c r="A557" s="71"/>
     </row>
     <row r="558">
-      <c r="A558" s="70"/>
+      <c r="A558" s="71"/>
     </row>
     <row r="559">
-      <c r="A559" s="70"/>
+      <c r="A559" s="71"/>
     </row>
     <row r="560">
-      <c r="A560" s="70"/>
+      <c r="A560" s="71"/>
     </row>
     <row r="561">
-      <c r="A561" s="70"/>
+      <c r="A561" s="71"/>
     </row>
     <row r="562">
-      <c r="A562" s="70"/>
+      <c r="A562" s="71"/>
     </row>
     <row r="563">
-      <c r="A563" s="70"/>
+      <c r="A563" s="71"/>
     </row>
     <row r="564">
-      <c r="A564" s="70"/>
+      <c r="A564" s="71"/>
     </row>
     <row r="565">
-      <c r="A565" s="70"/>
+      <c r="A565" s="71"/>
     </row>
     <row r="566">
-      <c r="A566" s="70"/>
+      <c r="A566" s="71"/>
     </row>
     <row r="567">
-      <c r="A567" s="70"/>
+      <c r="A567" s="71"/>
     </row>
     <row r="568">
-      <c r="A568" s="70"/>
+      <c r="A568" s="71"/>
     </row>
     <row r="569">
-      <c r="A569" s="70"/>
+      <c r="A569" s="71"/>
     </row>
     <row r="570">
-      <c r="A570" s="70"/>
+      <c r="A570" s="71"/>
     </row>
     <row r="571">
-      <c r="A571" s="70"/>
+      <c r="A571" s="71"/>
     </row>
     <row r="572">
-      <c r="A572" s="70"/>
+      <c r="A572" s="71"/>
     </row>
     <row r="573">
-      <c r="A573" s="70"/>
+      <c r="A573" s="71"/>
     </row>
     <row r="574">
-      <c r="A574" s="70"/>
+      <c r="A574" s="71"/>
     </row>
     <row r="575">
-      <c r="A575" s="70"/>
+      <c r="A575" s="71"/>
     </row>
     <row r="576">
-      <c r="A576" s="70"/>
+      <c r="A576" s="71"/>
     </row>
     <row r="577">
-      <c r="A577" s="70"/>
+      <c r="A577" s="71"/>
     </row>
     <row r="578">
-      <c r="A578" s="70"/>
+      <c r="A578" s="71"/>
     </row>
     <row r="579">
-      <c r="A579" s="70"/>
+      <c r="A579" s="71"/>
     </row>
     <row r="580">
-      <c r="A580" s="70"/>
+      <c r="A580" s="71"/>
     </row>
     <row r="581">
-      <c r="A581" s="70"/>
+      <c r="A581" s="71"/>
     </row>
     <row r="582">
-      <c r="A582" s="70"/>
+      <c r="A582" s="71"/>
     </row>
     <row r="583">
-      <c r="A583" s="70"/>
+      <c r="A583" s="71"/>
     </row>
     <row r="584">
-      <c r="A584" s="70"/>
+      <c r="A584" s="71"/>
     </row>
     <row r="585">
-      <c r="A585" s="70"/>
+      <c r="A585" s="71"/>
     </row>
     <row r="586">
-      <c r="A586" s="70"/>
+      <c r="A586" s="71"/>
     </row>
     <row r="587">
-      <c r="A587" s="70"/>
+      <c r="A587" s="71"/>
     </row>
     <row r="588">
-      <c r="A588" s="70"/>
+      <c r="A588" s="71"/>
     </row>
     <row r="589">
-      <c r="A589" s="70"/>
+      <c r="A589" s="71"/>
     </row>
     <row r="590">
-      <c r="A590" s="70"/>
+      <c r="A590" s="71"/>
     </row>
     <row r="591">
-      <c r="A591" s="70"/>
+      <c r="A591" s="71"/>
     </row>
     <row r="592">
-      <c r="A592" s="70"/>
+      <c r="A592" s="71"/>
     </row>
     <row r="593">
-      <c r="A593" s="70"/>
+      <c r="A593" s="71"/>
     </row>
     <row r="594">
-      <c r="A594" s="70"/>
+      <c r="A594" s="71"/>
     </row>
     <row r="595">
-      <c r="A595" s="70"/>
+      <c r="A595" s="71"/>
     </row>
     <row r="596">
-      <c r="A596" s="70"/>
+      <c r="A596" s="71"/>
     </row>
     <row r="597">
-      <c r="A597" s="70"/>
+      <c r="A597" s="71"/>
     </row>
     <row r="598">
-      <c r="A598" s="70"/>
+      <c r="A598" s="71"/>
     </row>
     <row r="599">
-      <c r="A599" s="70"/>
+      <c r="A599" s="71"/>
     </row>
     <row r="600">
-      <c r="A600" s="70"/>
+      <c r="A600" s="71"/>
     </row>
     <row r="601">
-      <c r="A601" s="70"/>
+      <c r="A601" s="71"/>
     </row>
     <row r="602">
-      <c r="A602" s="70"/>
+      <c r="A602" s="71"/>
     </row>
     <row r="603">
-      <c r="A603" s="70"/>
+      <c r="A603" s="71"/>
     </row>
     <row r="604">
-      <c r="A604" s="70"/>
+      <c r="A604" s="71"/>
     </row>
     <row r="605">
-      <c r="A605" s="70"/>
+      <c r="A605" s="71"/>
     </row>
     <row r="606">
-      <c r="A606" s="70"/>
+      <c r="A606" s="71"/>
     </row>
     <row r="607">
-      <c r="A607" s="70"/>
+      <c r="A607" s="71"/>
     </row>
     <row r="608">
-      <c r="A608" s="70"/>
+      <c r="A608" s="71"/>
     </row>
     <row r="609">
-      <c r="A609" s="70"/>
+      <c r="A609" s="71"/>
     </row>
     <row r="610">
-      <c r="A610" s="70"/>
+      <c r="A610" s="71"/>
     </row>
     <row r="611">
-      <c r="A611" s="70"/>
+      <c r="A611" s="71"/>
     </row>
     <row r="612">
-      <c r="A612" s="70"/>
+      <c r="A612" s="71"/>
     </row>
     <row r="613">
-      <c r="A613" s="70"/>
+      <c r="A613" s="71"/>
     </row>
     <row r="614">
-      <c r="A614" s="70"/>
+      <c r="A614" s="71"/>
     </row>
     <row r="615">
-      <c r="A615" s="70"/>
+      <c r="A615" s="71"/>
     </row>
     <row r="616">
-      <c r="A616" s="70"/>
+      <c r="A616" s="71"/>
     </row>
     <row r="617">
-      <c r="A617" s="70"/>
+      <c r="A617" s="71"/>
     </row>
     <row r="618">
-      <c r="A618" s="70"/>
+      <c r="A618" s="71"/>
     </row>
     <row r="619">
-      <c r="A619" s="70"/>
+      <c r="A619" s="71"/>
     </row>
     <row r="620">
-      <c r="A620" s="70"/>
+      <c r="A620" s="71"/>
     </row>
     <row r="621">
-      <c r="A621" s="70"/>
+      <c r="A621" s="71"/>
     </row>
     <row r="622">
-      <c r="A622" s="70"/>
+      <c r="A622" s="71"/>
     </row>
     <row r="623">
-      <c r="A623" s="70"/>
+      <c r="A623" s="71"/>
     </row>
     <row r="624">
-      <c r="A624" s="70"/>
+      <c r="A624" s="71"/>
     </row>
     <row r="625">
-      <c r="A625" s="70"/>
+      <c r="A625" s="71"/>
     </row>
     <row r="626">
-      <c r="A626" s="70"/>
+      <c r="A626" s="71"/>
     </row>
     <row r="627">
-      <c r="A627" s="70"/>
+      <c r="A627" s="71"/>
     </row>
     <row r="628">
-      <c r="A628" s="70"/>
+      <c r="A628" s="71"/>
     </row>
     <row r="629">
-      <c r="A629" s="70"/>
+      <c r="A629" s="71"/>
     </row>
     <row r="630">
-      <c r="A630" s="70"/>
+      <c r="A630" s="71"/>
     </row>
     <row r="631">
-      <c r="A631" s="70"/>
+      <c r="A631" s="71"/>
     </row>
     <row r="632">
-      <c r="A632" s="70"/>
+      <c r="A632" s="71"/>
     </row>
     <row r="633">
-      <c r="A633" s="70"/>
+      <c r="A633" s="71"/>
     </row>
     <row r="634">
-      <c r="A634" s="70"/>
+      <c r="A634" s="71"/>
     </row>
     <row r="635">
-      <c r="A635" s="70"/>
+      <c r="A635" s="71"/>
     </row>
     <row r="636">
-      <c r="A636" s="70"/>
+      <c r="A636" s="71"/>
     </row>
     <row r="637">
-      <c r="A637" s="70"/>
+      <c r="A637" s="71"/>
     </row>
     <row r="638">
-      <c r="A638" s="70"/>
+      <c r="A638" s="71"/>
     </row>
     <row r="639">
-      <c r="A639" s="70"/>
+      <c r="A639" s="71"/>
     </row>
     <row r="640">
-      <c r="A640" s="70"/>
+      <c r="A640" s="71"/>
     </row>
     <row r="641">
-      <c r="A641" s="70"/>
+      <c r="A641" s="71"/>
     </row>
     <row r="642">
-      <c r="A642" s="70"/>
+      <c r="A642" s="71"/>
     </row>
     <row r="643">
-      <c r="A643" s="70"/>
+      <c r="A643" s="71"/>
     </row>
     <row r="644">
-      <c r="A644" s="70"/>
+      <c r="A644" s="71"/>
     </row>
     <row r="645">
-      <c r="A645" s="70"/>
+      <c r="A645" s="71"/>
     </row>
     <row r="646">
-      <c r="A646" s="70"/>
+      <c r="A646" s="71"/>
     </row>
     <row r="647">
-      <c r="A647" s="70"/>
+      <c r="A647" s="71"/>
     </row>
     <row r="648">
-      <c r="A648" s="70"/>
+      <c r="A648" s="71"/>
     </row>
     <row r="649">
-      <c r="A649" s="70"/>
+      <c r="A649" s="71"/>
     </row>
     <row r="650">
-      <c r="A650" s="70"/>
+      <c r="A650" s="71"/>
     </row>
     <row r="651">
-      <c r="A651" s="70"/>
+      <c r="A651" s="71"/>
     </row>
     <row r="652">
-      <c r="A652" s="70"/>
+      <c r="A652" s="71"/>
     </row>
     <row r="653">
-      <c r="A653" s="70"/>
+      <c r="A653" s="71"/>
     </row>
     <row r="654">
-      <c r="A654" s="70"/>
+      <c r="A654" s="71"/>
     </row>
     <row r="655">
-      <c r="A655" s="70"/>
+      <c r="A655" s="71"/>
     </row>
     <row r="656">
-      <c r="A656" s="70"/>
+      <c r="A656" s="71"/>
     </row>
     <row r="657">
-      <c r="A657" s="70"/>
+      <c r="A657" s="71"/>
     </row>
     <row r="658">
-      <c r="A658" s="70"/>
+      <c r="A658" s="71"/>
     </row>
     <row r="659">
-      <c r="A659" s="70"/>
+      <c r="A659" s="71"/>
     </row>
     <row r="660">
-      <c r="A660" s="70"/>
+      <c r="A660" s="71"/>
     </row>
     <row r="661">
-      <c r="A661" s="70"/>
+      <c r="A661" s="71"/>
     </row>
     <row r="662">
-      <c r="A662" s="70"/>
+      <c r="A662" s="71"/>
     </row>
     <row r="663">
-      <c r="A663" s="70"/>
+      <c r="A663" s="71"/>
     </row>
     <row r="664">
-      <c r="A664" s="70"/>
+      <c r="A664" s="71"/>
     </row>
     <row r="665">
-      <c r="A665" s="70"/>
+      <c r="A665" s="71"/>
     </row>
     <row r="666">
-      <c r="A666" s="70"/>
+      <c r="A666" s="71"/>
     </row>
     <row r="667">
-      <c r="A667" s="70"/>
+      <c r="A667" s="71"/>
     </row>
     <row r="668">
-      <c r="A668" s="70"/>
+      <c r="A668" s="71"/>
     </row>
     <row r="669">
-      <c r="A669" s="70"/>
+      <c r="A669" s="71"/>
     </row>
     <row r="670">
-      <c r="A670" s="70"/>
+      <c r="A670" s="71"/>
     </row>
     <row r="671">
-      <c r="A671" s="70"/>
+      <c r="A671" s="71"/>
     </row>
     <row r="672">
-      <c r="A672" s="70"/>
+      <c r="A672" s="71"/>
     </row>
     <row r="673">
-      <c r="A673" s="70"/>
+      <c r="A673" s="71"/>
     </row>
     <row r="674">
-      <c r="A674" s="70"/>
+      <c r="A674" s="71"/>
     </row>
     <row r="675">
-      <c r="A675" s="70"/>
+      <c r="A675" s="71"/>
     </row>
     <row r="676">
-      <c r="A676" s="70"/>
+      <c r="A676" s="71"/>
     </row>
     <row r="677">
-      <c r="A677" s="70"/>
+      <c r="A677" s="71"/>
     </row>
     <row r="678">
-      <c r="A678" s="70"/>
+      <c r="A678" s="71"/>
     </row>
     <row r="679">
-      <c r="A679" s="70"/>
+      <c r="A679" s="71"/>
     </row>
     <row r="680">
-      <c r="A680" s="70"/>
+      <c r="A680" s="71"/>
     </row>
     <row r="681">
-      <c r="A681" s="70"/>
+      <c r="A681" s="71"/>
     </row>
     <row r="682">
-      <c r="A682" s="70"/>
+      <c r="A682" s="71"/>
     </row>
     <row r="683">
-      <c r="A683" s="70"/>
+      <c r="A683" s="71"/>
     </row>
     <row r="684">
-      <c r="A684" s="70"/>
+      <c r="A684" s="71"/>
     </row>
     <row r="685">
-      <c r="A685" s="70"/>
+      <c r="A685" s="71"/>
     </row>
     <row r="686">
-      <c r="A686" s="70"/>
+      <c r="A686" s="71"/>
     </row>
     <row r="687">
-      <c r="A687" s="70"/>
+      <c r="A687" s="71"/>
     </row>
     <row r="688">
-      <c r="A688" s="70"/>
+      <c r="A688" s="71"/>
     </row>
     <row r="689">
-      <c r="A689" s="70"/>
+      <c r="A689" s="71"/>
     </row>
     <row r="690">
-      <c r="A690" s="70"/>
+      <c r="A690" s="71"/>
     </row>
     <row r="691">
-      <c r="A691" s="70"/>
+      <c r="A691" s="71"/>
     </row>
     <row r="692">
-      <c r="A692" s="70"/>
+      <c r="A692" s="71"/>
     </row>
     <row r="693">
-      <c r="A693" s="70"/>
+      <c r="A693" s="71"/>
     </row>
     <row r="694">
-      <c r="A694" s="70"/>
+      <c r="A694" s="71"/>
     </row>
     <row r="695">
-      <c r="A695" s="70"/>
+      <c r="A695" s="71"/>
     </row>
     <row r="696">
-      <c r="A696" s="70"/>
+      <c r="A696" s="71"/>
     </row>
     <row r="697">
-      <c r="A697" s="70"/>
+      <c r="A697" s="71"/>
     </row>
     <row r="698">
-      <c r="A698" s="70"/>
+      <c r="A698" s="71"/>
     </row>
     <row r="699">
-      <c r="A699" s="70"/>
+      <c r="A699" s="71"/>
     </row>
     <row r="700">
-      <c r="A700" s="70"/>
+      <c r="A700" s="71"/>
     </row>
     <row r="701">
-      <c r="A701" s="70"/>
+      <c r="A701" s="71"/>
     </row>
     <row r="702">
-      <c r="A702" s="70"/>
+      <c r="A702" s="71"/>
     </row>
     <row r="703">
-      <c r="A703" s="70"/>
+      <c r="A703" s="71"/>
     </row>
     <row r="704">
-      <c r="A704" s="70"/>
+      <c r="A704" s="71"/>
     </row>
     <row r="705">
-      <c r="A705" s="70"/>
+      <c r="A705" s="71"/>
     </row>
     <row r="706">
-      <c r="A706" s="70"/>
+      <c r="A706" s="71"/>
     </row>
     <row r="707">
-      <c r="A707" s="70"/>
+      <c r="A707" s="71"/>
     </row>
     <row r="708">
-      <c r="A708" s="70"/>
+      <c r="A708" s="71"/>
     </row>
     <row r="709">
-      <c r="A709" s="70"/>
+      <c r="A709" s="71"/>
     </row>
     <row r="710">
-      <c r="A710" s="70"/>
+      <c r="A710" s="71"/>
     </row>
     <row r="711">
-      <c r="A711" s="70"/>
+      <c r="A711" s="71"/>
     </row>
     <row r="712">
-      <c r="A712" s="70"/>
+      <c r="A712" s="71"/>
     </row>
     <row r="713">
-      <c r="A713" s="70"/>
+      <c r="A713" s="71"/>
     </row>
     <row r="714">
-      <c r="A714" s="70"/>
+      <c r="A714" s="71"/>
     </row>
     <row r="715">
-      <c r="A715" s="70"/>
+      <c r="A715" s="71"/>
     </row>
     <row r="716">
-      <c r="A716" s="70"/>
+      <c r="A716" s="71"/>
     </row>
     <row r="717">
-      <c r="A717" s="70"/>
+      <c r="A717" s="71"/>
     </row>
     <row r="718">
-      <c r="A718" s="70"/>
+      <c r="A718" s="71"/>
     </row>
     <row r="719">
-      <c r="A719" s="70"/>
+      <c r="A719" s="71"/>
     </row>
     <row r="720">
-      <c r="A720" s="70"/>
+      <c r="A720" s="71"/>
     </row>
     <row r="721">
-      <c r="A721" s="70"/>
+      <c r="A721" s="71"/>
     </row>
     <row r="722">
-      <c r="A722" s="70"/>
+      <c r="A722" s="71"/>
     </row>
     <row r="723">
-      <c r="A723" s="70"/>
+      <c r="A723" s="71"/>
     </row>
     <row r="724">
-      <c r="A724" s="70"/>
+      <c r="A724" s="71"/>
     </row>
     <row r="725">
-      <c r="A725" s="70"/>
+      <c r="A725" s="71"/>
     </row>
     <row r="726">
-      <c r="A726" s="70"/>
+      <c r="A726" s="71"/>
     </row>
     <row r="727">
-      <c r="A727" s="70"/>
+      <c r="A727" s="71"/>
     </row>
     <row r="728">
-      <c r="A728" s="70"/>
+      <c r="A728" s="71"/>
     </row>
     <row r="729">
-      <c r="A729" s="70"/>
+      <c r="A729" s="71"/>
     </row>
     <row r="730">
-      <c r="A730" s="70"/>
+      <c r="A730" s="71"/>
     </row>
     <row r="731">
-      <c r="A731" s="70"/>
+      <c r="A731" s="71"/>
     </row>
     <row r="732">
-      <c r="A732" s="70"/>
+      <c r="A732" s="71"/>
     </row>
     <row r="733">
-      <c r="A733" s="70"/>
+      <c r="A733" s="71"/>
     </row>
     <row r="734">
-      <c r="A734" s="70"/>
+      <c r="A734" s="71"/>
     </row>
     <row r="735">
-      <c r="A735" s="70"/>
+      <c r="A735" s="71"/>
     </row>
     <row r="736">
-      <c r="A736" s="70"/>
+      <c r="A736" s="71"/>
     </row>
     <row r="737">
-      <c r="A737" s="70"/>
+      <c r="A737" s="71"/>
     </row>
     <row r="738">
-      <c r="A738" s="70"/>
+      <c r="A738" s="71"/>
     </row>
     <row r="739">
-      <c r="A739" s="70"/>
+      <c r="A739" s="71"/>
     </row>
     <row r="740">
-      <c r="A740" s="70"/>
+      <c r="A740" s="71"/>
     </row>
     <row r="741">
-      <c r="A741" s="70"/>
+      <c r="A741" s="71"/>
     </row>
     <row r="742">
-      <c r="A742" s="70"/>
+      <c r="A742" s="71"/>
     </row>
     <row r="743">
-      <c r="A743" s="70"/>
+      <c r="A743" s="71"/>
     </row>
     <row r="744">
-      <c r="A744" s="70"/>
+      <c r="A744" s="71"/>
     </row>
     <row r="745">
-      <c r="A745" s="70"/>
+      <c r="A745" s="71"/>
     </row>
     <row r="746">
-      <c r="A746" s="70"/>
+      <c r="A746" s="71"/>
     </row>
     <row r="747">
-      <c r="A747" s="70"/>
+      <c r="A747" s="71"/>
     </row>
     <row r="748">
-      <c r="A748" s="70"/>
+      <c r="A748" s="71"/>
     </row>
     <row r="749">
-      <c r="A749" s="70"/>
+      <c r="A749" s="71"/>
     </row>
     <row r="750">
-      <c r="A750" s="70"/>
+      <c r="A750" s="71"/>
     </row>
     <row r="751">
-      <c r="A751" s="70"/>
+      <c r="A751" s="71"/>
     </row>
     <row r="752">
-      <c r="A752" s="70"/>
+      <c r="A752" s="71"/>
     </row>
     <row r="753">
-      <c r="A753" s="70"/>
+      <c r="A753" s="71"/>
     </row>
     <row r="754">
-      <c r="A754" s="70"/>
+      <c r="A754" s="71"/>
     </row>
     <row r="755">
-      <c r="A755" s="70"/>
+      <c r="A755" s="71"/>
     </row>
     <row r="756">
-      <c r="A756" s="70"/>
+      <c r="A756" s="71"/>
     </row>
     <row r="757">
-      <c r="A757" s="70"/>
+      <c r="A757" s="71"/>
     </row>
     <row r="758">
-      <c r="A758" s="70"/>
+      <c r="A758" s="71"/>
     </row>
     <row r="759">
-      <c r="A759" s="70"/>
+      <c r="A759" s="71"/>
     </row>
     <row r="760">
-      <c r="A760" s="70"/>
+      <c r="A760" s="71"/>
     </row>
     <row r="761">
-      <c r="A761" s="70"/>
+      <c r="A761" s="71"/>
     </row>
     <row r="762">
-      <c r="A762" s="70"/>
+      <c r="A762" s="71"/>
     </row>
     <row r="763">
-      <c r="A763" s="70"/>
+      <c r="A763" s="71"/>
     </row>
     <row r="764">
-      <c r="A764" s="70"/>
+      <c r="A764" s="71"/>
     </row>
     <row r="765">
-      <c r="A765" s="70"/>
+      <c r="A765" s="71"/>
     </row>
     <row r="766">
-      <c r="A766" s="70"/>
+      <c r="A766" s="71"/>
     </row>
     <row r="767">
-      <c r="A767" s="70"/>
+      <c r="A767" s="71"/>
     </row>
     <row r="768">
-      <c r="A768" s="70"/>
+      <c r="A768" s="71"/>
     </row>
     <row r="769">
-      <c r="A769" s="70"/>
+      <c r="A769" s="71"/>
     </row>
     <row r="770">
-      <c r="A770" s="70"/>
+      <c r="A770" s="71"/>
     </row>
     <row r="771">
-      <c r="A771" s="70"/>
+      <c r="A771" s="71"/>
     </row>
     <row r="772">
-      <c r="A772" s="70"/>
+      <c r="A772" s="71"/>
     </row>
     <row r="773">
-      <c r="A773" s="70"/>
+      <c r="A773" s="71"/>
     </row>
     <row r="774">
-      <c r="A774" s="70"/>
+      <c r="A774" s="71"/>
     </row>
     <row r="775">
-      <c r="A775" s="70"/>
+      <c r="A775" s="71"/>
     </row>
     <row r="776">
-      <c r="A776" s="70"/>
+      <c r="A776" s="71"/>
     </row>
     <row r="777">
-      <c r="A777" s="70"/>
+      <c r="A777" s="71"/>
     </row>
     <row r="778">
-      <c r="A778" s="70"/>
+      <c r="A778" s="71"/>
     </row>
     <row r="779">
-      <c r="A779" s="70"/>
+      <c r="A779" s="71"/>
     </row>
     <row r="780">
-      <c r="A780" s="70"/>
+      <c r="A780" s="71"/>
     </row>
     <row r="781">
-      <c r="A781" s="70"/>
+      <c r="A781" s="71"/>
     </row>
     <row r="782">
-      <c r="A782" s="70"/>
+      <c r="A782" s="71"/>
     </row>
     <row r="783">
-      <c r="A783" s="70"/>
+      <c r="A783" s="71"/>
     </row>
     <row r="784">
-      <c r="A784" s="70"/>
+      <c r="A784" s="71"/>
     </row>
     <row r="785">
-      <c r="A785" s="70"/>
+      <c r="A785" s="71"/>
     </row>
     <row r="786">
-      <c r="A786" s="70"/>
+      <c r="A786" s="71"/>
     </row>
     <row r="787">
-      <c r="A787" s="70"/>
+      <c r="A787" s="71"/>
     </row>
     <row r="788">
-      <c r="A788" s="70"/>
+      <c r="A788" s="71"/>
     </row>
     <row r="789">
-      <c r="A789" s="70"/>
+      <c r="A789" s="71"/>
     </row>
     <row r="790">
-      <c r="A790" s="70"/>
+      <c r="A790" s="71"/>
     </row>
     <row r="791">
-      <c r="A791" s="70"/>
+      <c r="A791" s="71"/>
     </row>
     <row r="792">
-      <c r="A792" s="70"/>
+      <c r="A792" s="71"/>
     </row>
     <row r="793">
-      <c r="A793" s="70"/>
+      <c r="A793" s="71"/>
     </row>
     <row r="794">
-      <c r="A794" s="70"/>
+      <c r="A794" s="71"/>
     </row>
     <row r="795">
-      <c r="A795" s="70"/>
+      <c r="A795" s="71"/>
     </row>
     <row r="796">
-      <c r="A796" s="70"/>
+      <c r="A796" s="71"/>
     </row>
     <row r="797">
-      <c r="A797" s="70"/>
+      <c r="A797" s="71"/>
     </row>
     <row r="798">
-      <c r="A798" s="70"/>
+      <c r="A798" s="71"/>
     </row>
     <row r="799">
-      <c r="A799" s="70"/>
+      <c r="A799" s="71"/>
     </row>
     <row r="800">
-      <c r="A800" s="70"/>
+      <c r="A800" s="71"/>
     </row>
     <row r="801">
-      <c r="A801" s="70"/>
+      <c r="A801" s="71"/>
     </row>
     <row r="802">
-      <c r="A802" s="70"/>
+      <c r="A802" s="71"/>
     </row>
     <row r="803">
-      <c r="A803" s="70"/>
+      <c r="A803" s="71"/>
     </row>
     <row r="804">
-      <c r="A804" s="70"/>
+      <c r="A804" s="71"/>
     </row>
     <row r="805">
-      <c r="A805" s="70"/>
+      <c r="A805" s="71"/>
     </row>
     <row r="806">
-      <c r="A806" s="70"/>
+      <c r="A806" s="71"/>
     </row>
     <row r="807">
-      <c r="A807" s="70"/>
+      <c r="A807" s="71"/>
     </row>
     <row r="808">
-      <c r="A808" s="70"/>
+      <c r="A808" s="71"/>
     </row>
     <row r="809">
-      <c r="A809" s="70"/>
+      <c r="A809" s="71"/>
     </row>
     <row r="810">
-      <c r="A810" s="70"/>
+      <c r="A810" s="71"/>
     </row>
     <row r="811">
-      <c r="A811" s="70"/>
+      <c r="A811" s="71"/>
     </row>
     <row r="812">
-      <c r="A812" s="70"/>
+      <c r="A812" s="71"/>
     </row>
     <row r="813">
-      <c r="A813" s="70"/>
+      <c r="A813" s="71"/>
     </row>
     <row r="814">
-      <c r="A814" s="70"/>
+      <c r="A814" s="71"/>
     </row>
     <row r="815">
-      <c r="A815" s="70"/>
+      <c r="A815" s="71"/>
     </row>
     <row r="816">
-      <c r="A816" s="70"/>
+      <c r="A816" s="71"/>
     </row>
     <row r="817">
-      <c r="A817" s="70"/>
+      <c r="A817" s="71"/>
     </row>
     <row r="818">
-      <c r="A818" s="70"/>
+      <c r="A818" s="71"/>
     </row>
     <row r="819">
-      <c r="A819" s="70"/>
+      <c r="A819" s="71"/>
     </row>
     <row r="820">
-      <c r="A820" s="70"/>
+      <c r="A820" s="71"/>
     </row>
     <row r="821">
-      <c r="A821" s="70"/>
+      <c r="A821" s="71"/>
     </row>
     <row r="822">
-      <c r="A822" s="70"/>
+      <c r="A822" s="71"/>
     </row>
     <row r="823">
-      <c r="A823" s="70"/>
+      <c r="A823" s="71"/>
     </row>
     <row r="824">
-      <c r="A824" s="70"/>
+      <c r="A824" s="71"/>
     </row>
     <row r="825">
-      <c r="A825" s="70"/>
+      <c r="A825" s="71"/>
     </row>
     <row r="826">
-      <c r="A826" s="70"/>
+      <c r="A826" s="71"/>
     </row>
     <row r="827">
-      <c r="A827" s="70"/>
+      <c r="A827" s="71"/>
     </row>
     <row r="828">
-      <c r="A828" s="70"/>
+      <c r="A828" s="71"/>
     </row>
     <row r="829">
-      <c r="A829" s="70"/>
+      <c r="A829" s="71"/>
     </row>
     <row r="830">
-      <c r="A830" s="70"/>
+      <c r="A830" s="71"/>
     </row>
     <row r="831">
-      <c r="A831" s="70"/>
+      <c r="A831" s="71"/>
     </row>
     <row r="832">
-      <c r="A832" s="70"/>
+      <c r="A832" s="71"/>
     </row>
     <row r="833">
-      <c r="A833" s="70"/>
+      <c r="A833" s="71"/>
     </row>
     <row r="834">
-      <c r="A834" s="70"/>
+      <c r="A834" s="71"/>
     </row>
     <row r="835">
-      <c r="A835" s="70"/>
+      <c r="A835" s="71"/>
     </row>
     <row r="836">
-      <c r="A836" s="70"/>
+      <c r="A836" s="71"/>
     </row>
     <row r="837">
-      <c r="A837" s="70"/>
+      <c r="A837" s="71"/>
     </row>
     <row r="838">
-      <c r="A838" s="70"/>
+      <c r="A838" s="71"/>
     </row>
     <row r="839">
-      <c r="A839" s="70"/>
+      <c r="A839" s="71"/>
     </row>
     <row r="840">
-      <c r="A840" s="70"/>
+      <c r="A840" s="71"/>
     </row>
     <row r="841">
-      <c r="A841" s="70"/>
+      <c r="A841" s="71"/>
     </row>
     <row r="842">
-      <c r="A842" s="70"/>
+      <c r="A842" s="71"/>
     </row>
     <row r="843">
-      <c r="A843" s="70"/>
+      <c r="A843" s="71"/>
     </row>
     <row r="844">
-      <c r="A844" s="70"/>
+      <c r="A844" s="71"/>
     </row>
     <row r="845">
-      <c r="A845" s="70"/>
+      <c r="A845" s="71"/>
     </row>
     <row r="846">
-      <c r="A846" s="70"/>
+      <c r="A846" s="71"/>
     </row>
     <row r="847">
-      <c r="A847" s="70"/>
+      <c r="A847" s="71"/>
     </row>
     <row r="848">
-      <c r="A848" s="70"/>
+      <c r="A848" s="71"/>
     </row>
     <row r="849">
-      <c r="A849" s="70"/>
+      <c r="A849" s="71"/>
     </row>
     <row r="850">
-      <c r="A850" s="70"/>
+      <c r="A850" s="71"/>
     </row>
     <row r="851">
-      <c r="A851" s="70"/>
+      <c r="A851" s="71"/>
     </row>
     <row r="852">
-      <c r="A852" s="70"/>
+      <c r="A852" s="71"/>
     </row>
     <row r="853">
-      <c r="A853" s="70"/>
+      <c r="A853" s="71"/>
     </row>
     <row r="854">
-      <c r="A854" s="70"/>
+      <c r="A854" s="71"/>
     </row>
     <row r="855">
-      <c r="A855" s="70"/>
+      <c r="A855" s="71"/>
     </row>
     <row r="856">
-      <c r="A856" s="70"/>
+      <c r="A856" s="71"/>
     </row>
     <row r="857">
-      <c r="A857" s="70"/>
+      <c r="A857" s="71"/>
     </row>
     <row r="858">
-      <c r="A858" s="70"/>
+      <c r="A858" s="71"/>
     </row>
     <row r="859">
-      <c r="A859" s="70"/>
+      <c r="A859" s="71"/>
     </row>
     <row r="860">
-      <c r="A860" s="70"/>
+      <c r="A860" s="71"/>
     </row>
     <row r="861">
-      <c r="A861" s="70"/>
+      <c r="A861" s="71"/>
     </row>
     <row r="862">
-      <c r="A862" s="70"/>
+      <c r="A862" s="71"/>
     </row>
     <row r="863">
-      <c r="A863" s="70"/>
+      <c r="A863" s="71"/>
     </row>
     <row r="864">
-      <c r="A864" s="70"/>
+      <c r="A864" s="71"/>
     </row>
     <row r="865">
-      <c r="A865" s="70"/>
+      <c r="A865" s="71"/>
     </row>
     <row r="866">
-      <c r="A866" s="70"/>
+      <c r="A866" s="71"/>
     </row>
     <row r="867">
-      <c r="A867" s="70"/>
+      <c r="A867" s="71"/>
     </row>
     <row r="868">
-      <c r="A868" s="70"/>
+      <c r="A868" s="71"/>
     </row>
     <row r="869">
-      <c r="A869" s="70"/>
+      <c r="A869" s="71"/>
     </row>
     <row r="870">
-      <c r="A870" s="70"/>
+      <c r="A870" s="71"/>
     </row>
     <row r="871">
-      <c r="A871" s="70"/>
+      <c r="A871" s="71"/>
     </row>
     <row r="872">
-      <c r="A872" s="70"/>
+      <c r="A872" s="71"/>
     </row>
     <row r="873">
-      <c r="A873" s="70"/>
+      <c r="A873" s="71"/>
     </row>
     <row r="874">
-      <c r="A874" s="70"/>
+      <c r="A874" s="71"/>
     </row>
     <row r="875">
-      <c r="A875" s="70"/>
+      <c r="A875" s="71"/>
     </row>
     <row r="876">
-      <c r="A876" s="70"/>
+      <c r="A876" s="71"/>
     </row>
     <row r="877">
-      <c r="A877" s="70"/>
+      <c r="A877" s="71"/>
     </row>
     <row r="878">
-      <c r="A878" s="70"/>
+      <c r="A878" s="71"/>
     </row>
     <row r="879">
-      <c r="A879" s="70"/>
+      <c r="A879" s="71"/>
     </row>
     <row r="880">
-      <c r="A880" s="70"/>
+      <c r="A880" s="71"/>
     </row>
     <row r="881">
-      <c r="A881" s="70"/>
+      <c r="A881" s="71"/>
     </row>
     <row r="882">
-      <c r="A882" s="70"/>
+      <c r="A882" s="71"/>
     </row>
     <row r="883">
-      <c r="A883" s="70"/>
+      <c r="A883" s="71"/>
     </row>
     <row r="884">
-      <c r="A884" s="70"/>
+      <c r="A884" s="71"/>
     </row>
     <row r="885">
-      <c r="A885" s="70"/>
+      <c r="A885" s="71"/>
     </row>
     <row r="886">
-      <c r="A886" s="70"/>
+      <c r="A886" s="71"/>
     </row>
     <row r="887">
-      <c r="A887" s="70"/>
+      <c r="A887" s="71"/>
     </row>
     <row r="888">
-      <c r="A888" s="70"/>
+      <c r="A888" s="71"/>
     </row>
     <row r="889">
-      <c r="A889" s="70"/>
+      <c r="A889" s="71"/>
     </row>
     <row r="890">
-      <c r="A890" s="70"/>
+      <c r="A890" s="71"/>
     </row>
     <row r="891">
-      <c r="A891" s="70"/>
+      <c r="A891" s="71"/>
     </row>
     <row r="892">
-      <c r="A892" s="70"/>
+      <c r="A892" s="71"/>
     </row>
     <row r="893">
-      <c r="A893" s="70"/>
+      <c r="A893" s="71"/>
     </row>
     <row r="894">
-      <c r="A894" s="70"/>
+      <c r="A894" s="71"/>
     </row>
     <row r="895">
-      <c r="A895" s="70"/>
+      <c r="A895" s="71"/>
     </row>
     <row r="896">
-      <c r="A896" s="70"/>
+      <c r="A896" s="71"/>
     </row>
     <row r="897">
-      <c r="A897" s="70"/>
+      <c r="A897" s="71"/>
     </row>
     <row r="898">
-      <c r="A898" s="70"/>
+      <c r="A898" s="71"/>
     </row>
     <row r="899">
-      <c r="A899" s="70"/>
+      <c r="A899" s="71"/>
     </row>
     <row r="900">
-      <c r="A900" s="70"/>
+      <c r="A900" s="71"/>
     </row>
     <row r="901">
-      <c r="A901" s="70"/>
+      <c r="A901" s="71"/>
     </row>
     <row r="902">
-      <c r="A902" s="70"/>
+      <c r="A902" s="71"/>
     </row>
     <row r="903">
-      <c r="A903" s="70"/>
+      <c r="A903" s="71"/>
     </row>
     <row r="904">
-      <c r="A904" s="70"/>
+      <c r="A904" s="71"/>
     </row>
     <row r="905">
-      <c r="A905" s="70"/>
+      <c r="A905" s="71"/>
     </row>
     <row r="906">
-      <c r="A906" s="70"/>
+      <c r="A906" s="71"/>
     </row>
     <row r="907">
-      <c r="A907" s="70"/>
+      <c r="A907" s="71"/>
     </row>
     <row r="908">
-      <c r="A908" s="70"/>
+      <c r="A908" s="71"/>
     </row>
     <row r="909">
-      <c r="A909" s="70"/>
+      <c r="A909" s="71"/>
     </row>
     <row r="910">
-      <c r="A910" s="70"/>
+      <c r="A910" s="71"/>
     </row>
     <row r="911">
-      <c r="A911" s="70"/>
+      <c r="A911" s="71"/>
     </row>
     <row r="912">
-      <c r="A912" s="70"/>
+      <c r="A912" s="71"/>
     </row>
     <row r="913">
-      <c r="A913" s="70"/>
+      <c r="A913" s="71"/>
     </row>
     <row r="914">
-      <c r="A914" s="70"/>
+      <c r="A914" s="71"/>
     </row>
     <row r="915">
-      <c r="A915" s="70"/>
+      <c r="A915" s="71"/>
     </row>
     <row r="916">
-      <c r="A916" s="70"/>
+      <c r="A916" s="71"/>
     </row>
     <row r="917">
-      <c r="A917" s="70"/>
+      <c r="A917" s="71"/>
     </row>
     <row r="918">
-      <c r="A918" s="70"/>
+      <c r="A918" s="71"/>
     </row>
     <row r="919">
-      <c r="A919" s="70"/>
+      <c r="A919" s="71"/>
     </row>
     <row r="920">
-      <c r="A920" s="70"/>
+      <c r="A920" s="71"/>
     </row>
     <row r="921">
-      <c r="A921" s="70"/>
+      <c r="A921" s="71"/>
     </row>
     <row r="922">
-      <c r="A922" s="70"/>
+      <c r="A922" s="71"/>
     </row>
     <row r="923">
-      <c r="A923" s="70"/>
+      <c r="A923" s="71"/>
     </row>
     <row r="924">
-      <c r="A924" s="70"/>
+      <c r="A924" s="71"/>
     </row>
     <row r="925">
-      <c r="A925" s="70"/>
+      <c r="A925" s="71"/>
     </row>
     <row r="926">
-      <c r="A926" s="70"/>
+      <c r="A926" s="71"/>
     </row>
     <row r="927">
-      <c r="A927" s="70"/>
+      <c r="A927" s="71"/>
     </row>
     <row r="928">
-      <c r="A928" s="70"/>
+      <c r="A928" s="71"/>
     </row>
     <row r="929">
-      <c r="A929" s="70"/>
+      <c r="A929" s="71"/>
     </row>
     <row r="930">
-      <c r="A930" s="70"/>
+      <c r="A930" s="71"/>
     </row>
     <row r="931">
-      <c r="A931" s="70"/>
+      <c r="A931" s="71"/>
     </row>
     <row r="932">
-      <c r="A932" s="70"/>
+      <c r="A932" s="71"/>
     </row>
     <row r="933">
-      <c r="A933" s="70"/>
+      <c r="A933" s="71"/>
     </row>
     <row r="934">
-      <c r="A934" s="70"/>
+      <c r="A934" s="71"/>
     </row>
     <row r="935">
-      <c r="A935" s="70"/>
+      <c r="A935" s="71"/>
     </row>
     <row r="936">
-      <c r="A936" s="70"/>
+      <c r="A936" s="71"/>
     </row>
     <row r="937">
-      <c r="A937" s="70"/>
+      <c r="A937" s="71"/>
     </row>
     <row r="938">
-      <c r="A938" s="70"/>
+      <c r="A938" s="71"/>
     </row>
     <row r="939">
-      <c r="A939" s="70"/>
+      <c r="A939" s="71"/>
     </row>
     <row r="940">
-      <c r="A940" s="70"/>
+      <c r="A940" s="71"/>
     </row>
     <row r="941">
-      <c r="A941" s="70"/>
+      <c r="A941" s="71"/>
     </row>
     <row r="942">
-      <c r="A942" s="70"/>
+      <c r="A942" s="71"/>
     </row>
     <row r="943">
-      <c r="A943" s="70"/>
+      <c r="A943" s="71"/>
     </row>
     <row r="944">
-      <c r="A944" s="70"/>
+      <c r="A944" s="71"/>
     </row>
     <row r="945">
-      <c r="A945" s="70"/>
+      <c r="A945" s="71"/>
     </row>
     <row r="946">
-      <c r="A946" s="70"/>
+      <c r="A946" s="71"/>
     </row>
     <row r="947">
-      <c r="A947" s="70"/>
+      <c r="A947" s="71"/>
     </row>
     <row r="948">
-      <c r="A948" s="70"/>
+      <c r="A948" s="71"/>
     </row>
     <row r="949">
-      <c r="A949" s="70"/>
+      <c r="A949" s="71"/>
     </row>
     <row r="950">
-      <c r="A950" s="70"/>
+      <c r="A950" s="71"/>
     </row>
     <row r="951">
-      <c r="A951" s="70"/>
+      <c r="A951" s="71"/>
     </row>
     <row r="952">
-      <c r="A952" s="70"/>
+      <c r="A952" s="71"/>
     </row>
     <row r="953">
-      <c r="A953" s="70"/>
+      <c r="A953" s="71"/>
     </row>
     <row r="954">
-      <c r="A954" s="70"/>
+      <c r="A954" s="71"/>
     </row>
     <row r="955">
-      <c r="A955" s="70"/>
+      <c r="A955" s="71"/>
     </row>
     <row r="956">
-      <c r="A956" s="70"/>
+      <c r="A956" s="71"/>
     </row>
     <row r="957">
-      <c r="A957" s="70"/>
+      <c r="A957" s="71"/>
     </row>
     <row r="958">
-      <c r="A958" s="70"/>
+      <c r="A958" s="71"/>
     </row>
     <row r="959">
-      <c r="A959" s="70"/>
+      <c r="A959" s="71"/>
     </row>
     <row r="960">
-      <c r="A960" s="70"/>
+      <c r="A960" s="71"/>
     </row>
     <row r="961">
-      <c r="A961" s="70"/>
+      <c r="A961" s="71"/>
     </row>
     <row r="962">
-      <c r="A962" s="70"/>
+      <c r="A962" s="71"/>
     </row>
     <row r="963">
-      <c r="A963" s="70"/>
+      <c r="A963" s="71"/>
     </row>
     <row r="964">
-      <c r="A964" s="70"/>
+      <c r="A964" s="71"/>
     </row>
     <row r="965">
-      <c r="A965" s="70"/>
+      <c r="A965" s="71"/>
     </row>
     <row r="966">
-      <c r="A966" s="70"/>
+      <c r="A966" s="71"/>
     </row>
     <row r="967">
-      <c r="A967" s="70"/>
+      <c r="A967" s="71"/>
     </row>
     <row r="968">
-      <c r="A968" s="70"/>
+      <c r="A968" s="71"/>
     </row>
     <row r="969">
-      <c r="A969" s="70"/>
+      <c r="A969" s="71"/>
     </row>
     <row r="970">
-      <c r="A970" s="70"/>
+      <c r="A970" s="71"/>
     </row>
     <row r="971">
-      <c r="A971" s="70"/>
+      <c r="A971" s="71"/>
     </row>
     <row r="972">
-      <c r="A972" s="70"/>
+      <c r="A972" s="71"/>
     </row>
     <row r="973">
-      <c r="A973" s="70"/>
+      <c r="A973" s="71"/>
     </row>
     <row r="974">
-      <c r="A974" s="70"/>
+      <c r="A974" s="71"/>
     </row>
     <row r="975">
-      <c r="A975" s="70"/>
+      <c r="A975" s="71"/>
     </row>
     <row r="976">
-      <c r="A976" s="70"/>
+      <c r="A976" s="71"/>
     </row>
     <row r="977">
-      <c r="A977" s="70"/>
+      <c r="A977" s="71"/>
     </row>
     <row r="978">
-      <c r="A978" s="70"/>
+      <c r="A978" s="71"/>
     </row>
     <row r="979">
-      <c r="A979" s="70"/>
+      <c r="A979" s="71"/>
     </row>
     <row r="980">
-      <c r="A980" s="70"/>
+      <c r="A980" s="71"/>
     </row>
     <row r="981">
-      <c r="A981" s="70"/>
+      <c r="A981" s="71"/>
     </row>
     <row r="982">
-      <c r="A982" s="70"/>
+      <c r="A982" s="71"/>
     </row>
     <row r="983">
-      <c r="A983" s="70"/>
+      <c r="A983" s="71"/>
     </row>
     <row r="984">
-      <c r="A984" s="70"/>
+      <c r="A984" s="71"/>
     </row>
     <row r="985">
-      <c r="A985" s="70"/>
+      <c r="A985" s="71"/>
     </row>
     <row r="986">
-      <c r="A986" s="70"/>
+      <c r="A986" s="71"/>
     </row>
     <row r="987">
-      <c r="A987" s="70"/>
+      <c r="A987" s="71"/>
     </row>
     <row r="988">
-      <c r="A988" s="70"/>
+      <c r="A988" s="71"/>
     </row>
     <row r="989">
-      <c r="A989" s="70"/>
+      <c r="A989" s="71"/>
     </row>
     <row r="990">
-      <c r="A990" s="70"/>
+      <c r="A990" s="71"/>
     </row>
     <row r="991">
-      <c r="A991" s="70"/>
+      <c r="A991" s="71"/>
     </row>
     <row r="992">
-      <c r="A992" s="70"/>
+      <c r="A992" s="71"/>
     </row>
     <row r="993">
-      <c r="A993" s="70"/>
+      <c r="A993" s="71"/>
     </row>
     <row r="994">
-      <c r="A994" s="70"/>
+      <c r="A994" s="71"/>
     </row>
     <row r="995">
-      <c r="A995" s="70"/>
+      <c r="A995" s="71"/>
     </row>
     <row r="996">
-      <c r="A996" s="70"/>
+      <c r="A996" s="71"/>
     </row>
     <row r="997">
-      <c r="A997" s="70"/>
+      <c r="A997" s="71"/>
     </row>
     <row r="998">
-      <c r="A998" s="70"/>
+      <c r="A998" s="71"/>
     </row>
     <row r="999">
-      <c r="A999" s="70"/>
+      <c r="A999" s="71"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="70"/>
+      <c r="A1000" s="71"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
